--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
   <si>
     <t>ts</t>
   </si>
@@ -31,139 +32,139 @@
     <t>IOMP-CT</t>
   </si>
   <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Johann</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Anj</t>
+  </si>
+  <si>
+    <t>Cath</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Arnel</t>
+  </si>
+  <si>
+    <t>Meryll</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Kennex</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Brain</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Reyn</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Eunice</t>
+  </si>
+  <si>
+    <t>TinC</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Lem</t>
+  </si>
+  <si>
+    <t>Jec</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Ardeth</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Momay</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
     <t>Biboy</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Brain</t>
-  </si>
-  <si>
-    <t>Carlo</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Johann</t>
-  </si>
-  <si>
-    <t>Mart</t>
-  </si>
-  <si>
-    <t>Arnel</t>
-  </si>
-  <si>
-    <t>Kennex</t>
-  </si>
-  <si>
-    <t>Cath</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Sky</t>
-  </si>
-  <si>
-    <t>Nathan</t>
-  </si>
-  <si>
-    <t>Louie</t>
-  </si>
-  <si>
-    <t>Meryll</t>
-  </si>
-  <si>
     <t>Prado</t>
   </si>
   <si>
-    <t>Junsat</t>
-  </si>
-  <si>
-    <t>Anj</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Ardeth</t>
-  </si>
-  <si>
-    <t>Rodney</t>
-  </si>
-  <si>
-    <t>Lem</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-  </si>
-  <si>
-    <t>Pati</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Momay</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Reyn</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Jec</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
     <t>Earl</t>
   </si>
   <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>TinC</t>
+    <t>Sonny</t>
   </si>
 </sst>
 </file>
@@ -525,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +554,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>43221.3125</v>
+        <v>43466.3125</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -565,7 +566,533 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>43466.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>43563.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>43564.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>43564.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>43572.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>43573.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>43573.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>43573.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>43574.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>43574.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>43585.8125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>43586.3125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>43586.8125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43627.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>43628.3125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>43628.8125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>43702.8125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43703.3125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43703.8125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43798.8125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43799.3125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43799.8125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43823.8125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43824.3125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43824.8125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43828.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>43829.3125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>43829.8125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>43221.3125</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -579,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -596,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -613,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -630,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -647,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -664,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -684,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -698,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -715,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -732,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -749,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -766,10 +1293,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -783,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -800,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -817,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -834,49 +1361,49 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>43405.8125</v>
+        <v>43406.3125</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>43406.3125</v>
+        <v>43406.8125</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43406.8125</v>
+        <v>43433.8125</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -885,18 +1412,18 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43433.8125</v>
+        <v>43434.3125</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -905,97 +1432,97 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43434.3125</v>
+        <v>43434.8125</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43434.8125</v>
+        <v>43457.8125</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43457.8125</v>
+        <v>43458.3125</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43458.3125</v>
+        <v>43458.8125</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43458.8125</v>
+        <v>43459.3125</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43458.8125</v>
+        <v>43459.8125</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -1004,83 +1531,83 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43459.3125</v>
+        <v>43463.8125</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43459.8125</v>
+        <v>43464.3125</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43463.8125</v>
+        <v>43464.8125</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43464.3125</v>
+        <v>43465.3125</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>43464.8125</v>
+        <v>43465.8125</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1089,61 +1616,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>43464.8125</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>43465.3125</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>43465.8125</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCA17A-4FF6-432B-9719-95B3D2918188}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="14700" windowHeight="9570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
   <si>
     <t>ts</t>
   </si>
@@ -35,123 +42,123 @@
     <t>Troy</t>
   </si>
   <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t>Marvin</t>
   </si>
   <si>
+    <t>Pati</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>Reyn</t>
+  </si>
+  <si>
     <t>Johann</t>
   </si>
   <si>
+    <t>Amy</t>
+  </si>
+  <si>
     <t>Sky</t>
   </si>
   <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t>Anj</t>
   </si>
   <si>
+    <t>Eunice</t>
+  </si>
+  <si>
     <t>Cath</t>
   </si>
   <si>
+    <t>TinC</t>
+  </si>
+  <si>
     <t>Roy</t>
   </si>
   <si>
+    <t>Pau</t>
+  </si>
+  <si>
     <t>Arnel</t>
   </si>
   <si>
+    <t>Lem</t>
+  </si>
+  <si>
     <t>Meryll</t>
   </si>
   <si>
+    <t>Jec</t>
+  </si>
+  <si>
     <t>Ivy</t>
   </si>
   <si>
+    <t>Anne</t>
+  </si>
+  <si>
     <t>Carlo</t>
   </si>
   <si>
+    <t>Harry</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>Oscar</t>
+  </si>
+  <si>
     <t>Kennex</t>
   </si>
   <si>
+    <t>Web</t>
+  </si>
+  <si>
     <t>Kate</t>
   </si>
   <si>
+    <t>Carla</t>
+  </si>
+  <si>
     <t>Ray</t>
   </si>
   <si>
+    <t>Ardeth</t>
+  </si>
+  <si>
     <t>Nathan</t>
   </si>
   <si>
+    <t>Camille</t>
+  </si>
+  <si>
     <t>Louie</t>
   </si>
   <si>
+    <t>Momay</t>
+  </si>
+  <si>
     <t>Nichole</t>
   </si>
   <si>
+    <t>Kevin</t>
+  </si>
+  <si>
     <t>Morgan</t>
   </si>
   <si>
     <t>Brain</t>
   </si>
   <si>
-    <t>Rodney</t>
-  </si>
-  <si>
-    <t>Pati</t>
-  </si>
-  <si>
-    <t>Reyn</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>TinC</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Lem</t>
-  </si>
-  <si>
-    <t>Jec</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Ardeth</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Momay</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
@@ -165,16 +172,64 @@
   </si>
   <si>
     <t>Sonny</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>Jk</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Tine</t>
+  </si>
+  <si>
+    <t>Jhoanne</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Jesusa</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Ops</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Julius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,10 +240,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,6 +291,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -525,17 +586,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43466.3125</v>
       </c>
@@ -566,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43466.8125</v>
       </c>
@@ -580,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43563.8125</v>
       </c>
@@ -597,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43564.3125</v>
       </c>
@@ -614,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43564.8125</v>
       </c>
@@ -631,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43572.8125</v>
       </c>
@@ -648,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43573.3125</v>
       </c>
@@ -665,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43573.8125</v>
       </c>
@@ -682,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43573.8125</v>
       </c>
@@ -699,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43574.3125</v>
       </c>
@@ -716,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43574.8125</v>
       </c>
@@ -733,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43585.8125</v>
       </c>
@@ -750,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43586.3125</v>
       </c>
@@ -767,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43586.8125</v>
       </c>
@@ -784,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43627.8125</v>
       </c>
@@ -801,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43628.3125</v>
       </c>
@@ -818,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43628.8125</v>
       </c>
@@ -835,13 +895,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43702.8125</v>
       </c>
@@ -852,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43703.3125</v>
       </c>
@@ -869,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43703.8125</v>
       </c>
@@ -886,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43798.8125</v>
       </c>
@@ -903,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43799.3125</v>
       </c>
@@ -923,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43799.8125</v>
       </c>
@@ -937,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43823.8125</v>
       </c>
@@ -954,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43824.3125</v>
       </c>
@@ -971,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43824.8125</v>
       </c>
@@ -988,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43828.8125</v>
       </c>
@@ -1005,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43829.3125</v>
       </c>
@@ -1022,13 +1082,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43829.8125</v>
       </c>
@@ -1039,29 +1099,605 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43221.3125</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43221.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43262.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43263.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43263.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43330.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43331.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43331.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43332.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43333.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43333.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43338.8125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43339.3125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43339.8125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43404.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43405.3125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43405.8125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43406.3125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43406.8125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43433.8125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43434.3125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43434.8125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43457.8125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43458.3125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43458.8125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43459.3125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43459.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43463.8125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43464.3125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43464.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43465.3125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43465.8125</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,9 +1714,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43221.3125</v>
+        <v>43831.3125</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1089,525 +1725,525 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43831.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43854.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43855.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43855.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43885.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43886.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43886.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43929.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43930.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43930.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43930.8125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43931.3125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43932.3125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43932.8125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43951.8125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43952.3125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43952.8125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43993.8125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43994.3125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43994.8125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44061.8125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44062.3125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43221.8125</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43262.8125</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43263.3125</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43263.8125</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44062.8125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44063.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44064.3125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44064.8125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44073.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44074.3125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43330.8125</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43331.3125</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43331.8125</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43332.8125</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43333.3125</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43333.8125</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43338.8125</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>43339.3125</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>43339.8125</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>43404.8125</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>43405.3125</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>43405.8125</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>43406.3125</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>43406.8125</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>43433.8125</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>43434.3125</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>43434.8125</v>
-      </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>43457.8125</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>43458.3125</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>43458.8125</v>
-      </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>43459.3125</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>43459.8125</v>
-      </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>43463.8125</v>
-      </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>43464.3125</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>43464.8125</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>43465.3125</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43465.8125</v>
+        <v>44074.8125</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1616,13 +2252,421 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44135.8125</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44136.3125</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44137.3125</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44137.8125</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44164.8125</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44165.3125</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44165.8125</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44172.8125</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44173.3125</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44173.8125</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44188.8125</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44189.3125</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44190.3125</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44190.8125</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44194.8125</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44195.3125</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44196.3125</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44196.8125</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209D199-94A4-48D6-AC8A-A318422E7D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
   <si>
     <t>ts</t>
   </si>
@@ -35,123 +42,123 @@
     <t>Troy</t>
   </si>
   <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t>Marvin</t>
   </si>
   <si>
+    <t>Pati</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>Reyn</t>
+  </si>
+  <si>
     <t>Johann</t>
   </si>
   <si>
+    <t>Amy</t>
+  </si>
+  <si>
     <t>Sky</t>
   </si>
   <si>
+    <t>Ken</t>
+  </si>
+  <si>
     <t>Anj</t>
   </si>
   <si>
+    <t>Eunice</t>
+  </si>
+  <si>
     <t>Cath</t>
   </si>
   <si>
+    <t>TinC</t>
+  </si>
+  <si>
     <t>Roy</t>
   </si>
   <si>
+    <t>Pau</t>
+  </si>
+  <si>
     <t>Arnel</t>
   </si>
   <si>
+    <t>Lem</t>
+  </si>
+  <si>
     <t>Meryll</t>
   </si>
   <si>
+    <t>Jec</t>
+  </si>
+  <si>
     <t>Ivy</t>
   </si>
   <si>
+    <t>Anne</t>
+  </si>
+  <si>
     <t>Carlo</t>
   </si>
   <si>
+    <t>Harry</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
+    <t>Oscar</t>
+  </si>
+  <si>
     <t>Kennex</t>
   </si>
   <si>
+    <t>Web</t>
+  </si>
+  <si>
     <t>Kate</t>
   </si>
   <si>
+    <t>Carla</t>
+  </si>
+  <si>
     <t>Ray</t>
   </si>
   <si>
+    <t>Ardeth</t>
+  </si>
+  <si>
     <t>Nathan</t>
   </si>
   <si>
+    <t>Camille</t>
+  </si>
+  <si>
     <t>Louie</t>
   </si>
   <si>
+    <t>Momay</t>
+  </si>
+  <si>
     <t>Nichole</t>
   </si>
   <si>
+    <t>Kevin</t>
+  </si>
+  <si>
     <t>Morgan</t>
   </si>
   <si>
     <t>Brain</t>
   </si>
   <si>
-    <t>Rodney</t>
-  </si>
-  <si>
-    <t>Pati</t>
-  </si>
-  <si>
-    <t>Reyn</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>TinC</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Lem</t>
-  </si>
-  <si>
-    <t>Jec</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Harry</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Ardeth</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Momay</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
@@ -165,16 +172,64 @@
   </si>
   <si>
     <t>Sonny</t>
+  </si>
+  <si>
+    <t>Janine</t>
+  </si>
+  <si>
+    <t>Jk</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Tine</t>
+  </si>
+  <si>
+    <t>Jhoanne</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Jesusa</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Julius</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Harle</t>
+  </si>
+  <si>
+    <t>Tina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,10 +240,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,6 +291,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -525,17 +586,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43466.3125</v>
       </c>
@@ -566,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43466.8125</v>
       </c>
@@ -580,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43563.8125</v>
       </c>
@@ -597,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43564.3125</v>
       </c>
@@ -614,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43564.8125</v>
       </c>
@@ -631,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43572.8125</v>
       </c>
@@ -648,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43573.3125</v>
       </c>
@@ -665,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43573.8125</v>
       </c>
@@ -682,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43573.8125</v>
       </c>
@@ -699,13 +759,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43574.3125</v>
       </c>
@@ -716,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43574.8125</v>
       </c>
@@ -733,13 +793,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43585.8125</v>
       </c>
@@ -750,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43586.3125</v>
       </c>
@@ -767,13 +827,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43586.8125</v>
       </c>
@@ -784,13 +844,13 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43627.8125</v>
       </c>
@@ -801,13 +861,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43628.3125</v>
       </c>
@@ -818,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43628.8125</v>
       </c>
@@ -835,13 +895,13 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43702.8125</v>
       </c>
@@ -852,13 +912,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43703.3125</v>
       </c>
@@ -869,13 +929,13 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43703.8125</v>
       </c>
@@ -886,13 +946,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43798.8125</v>
       </c>
@@ -903,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43799.3125</v>
       </c>
@@ -923,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43799.8125</v>
       </c>
@@ -937,13 +997,13 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43823.8125</v>
       </c>
@@ -954,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43824.3125</v>
       </c>
@@ -971,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43824.8125</v>
       </c>
@@ -988,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43828.8125</v>
       </c>
@@ -1005,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43829.3125</v>
       </c>
@@ -1022,13 +1082,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43829.8125</v>
       </c>
@@ -1039,29 +1099,605 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>43221.3125</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43221.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43262.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43263.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43263.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43330.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43331.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43331.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43332.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43333.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43333.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43338.8125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43339.3125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43339.8125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43404.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43405.3125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43405.8125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43406.3125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43406.8125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43433.8125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43434.3125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43434.8125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43457.8125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43458.3125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43458.8125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43459.3125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43459.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43463.8125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>43464.3125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>43464.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43465.3125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43465.8125</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,9 +1714,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43221.3125</v>
+        <v>43831.3125</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1089,525 +1725,525 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43831.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>43854.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43855.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>43855.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>43885.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43886.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>43886.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>43929.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>43930.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>43930.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43930.8125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43931.3125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>43932.3125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43932.8125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43951.8125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43952.3125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43952.8125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43993.8125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43994.3125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43994.8125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44061.8125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44062.3125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>43221.8125</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>43262.8125</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>43263.3125</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>43263.8125</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44062.8125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44063.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44064.3125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44064.8125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44073.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44074.3125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>43330.8125</v>
-      </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>43331.3125</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>43331.8125</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>43332.8125</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>43333.3125</v>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>43333.8125</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>43338.8125</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>43339.3125</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>43339.8125</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>43404.8125</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>43405.3125</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>43405.8125</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>43406.3125</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>43406.8125</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>43433.8125</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>43434.3125</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>43434.8125</v>
-      </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>43457.8125</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>43458.3125</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>43458.8125</v>
-      </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>43459.3125</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>43459.8125</v>
-      </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>43463.8125</v>
-      </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>43464.3125</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>43464.8125</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>43465.3125</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
       </c>
       <c r="E32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43465.8125</v>
+        <v>44074.8125</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1616,13 +2252,421 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44135.8125</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44136.3125</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44137.3125</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44137.8125</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44164.8125</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44165.3125</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44165.8125</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44172.8125</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44173.3125</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44173.8125</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44188.8125</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44189.3125</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
         <v>20</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44190.3125</v>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44190.8125</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44194.8125</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44195.3125</v>
+      </c>
+      <c r="B53" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44196.3125</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44196.8125</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5209D199-94A4-48D6-AC8A-A318422E7D20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6D389-3CD6-47EF-A664-09676A4CD666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>ts</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Janine</t>
   </si>
   <si>
-    <t>Jk</t>
-  </si>
-  <si>
     <t>Issa</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>James</t>
   </si>
   <si>
-    <t>Jesusa</t>
-  </si>
-  <si>
     <t>Chad</t>
   </si>
   <si>
@@ -220,6 +214,18 @@
   </si>
   <si>
     <t>Tina</t>
+  </si>
+  <si>
+    <t>Tintin</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>Jes</t>
+  </si>
+  <si>
+    <t>Luz</t>
   </si>
 </sst>
 </file>
@@ -1688,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -1830,7 +1836,7 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1847,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1861,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1929,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,7 +2040,7 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -2082,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -2116,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -2133,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -2153,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,7 +2193,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
@@ -2255,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2306,7 +2312,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -2408,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -2507,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
@@ -2524,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
@@ -2544,7 +2550,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2575,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
         <v>17</v>
@@ -2592,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
         <v>50</v>
@@ -2626,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2660,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
         <v>36</v>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6D389-3CD6-47EF-A664-09676A4CD666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6156B-8F38-4573-B086-745C8B207F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2020" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>ts</t>
   </si>
@@ -198,9 +206,6 @@
     <t>Nora</t>
   </si>
   <si>
-    <t>Roger</t>
-  </si>
-  <si>
     <t>Drew</t>
   </si>
   <si>
@@ -226,6 +231,9 @@
   </si>
   <si>
     <t>Luz</t>
+  </si>
+  <si>
+    <t>MealSr</t>
   </si>
 </sst>
 </file>
@@ -599,9 +607,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43466.3125</v>
       </c>
@@ -635,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43466.8125</v>
       </c>
@@ -652,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43563.8125</v>
       </c>
@@ -669,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43564.3125</v>
       </c>
@@ -686,7 +694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43564.8125</v>
       </c>
@@ -703,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43572.8125</v>
       </c>
@@ -720,7 +728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43573.3125</v>
       </c>
@@ -737,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43573.8125</v>
       </c>
@@ -754,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43573.8125</v>
       </c>
@@ -771,7 +779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43574.3125</v>
       </c>
@@ -788,7 +796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43574.8125</v>
       </c>
@@ -805,7 +813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43585.8125</v>
       </c>
@@ -822,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43586.3125</v>
       </c>
@@ -839,7 +847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43586.8125</v>
       </c>
@@ -856,7 +864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43627.8125</v>
       </c>
@@ -873,7 +881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43628.3125</v>
       </c>
@@ -890,7 +898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43628.8125</v>
       </c>
@@ -907,7 +915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43702.8125</v>
       </c>
@@ -924,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43703.3125</v>
       </c>
@@ -941,7 +949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43703.8125</v>
       </c>
@@ -958,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43798.8125</v>
       </c>
@@ -975,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43799.3125</v>
       </c>
@@ -992,7 +1000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43799.8125</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43823.8125</v>
       </c>
@@ -1026,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43824.3125</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43824.8125</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43828.8125</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43829.3125</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43829.8125</v>
       </c>
@@ -1122,9 +1130,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43221.3125</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43221.8125</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43262.8125</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43263.3125</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43263.8125</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43330.8125</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43331.3125</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43331.8125</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43332.8125</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43333.3125</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43333.8125</v>
       </c>
@@ -1328,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43338.8125</v>
       </c>
@@ -1345,7 +1353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43339.3125</v>
       </c>
@@ -1362,7 +1370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43339.8125</v>
       </c>
@@ -1379,7 +1387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43404.8125</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43405.3125</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43405.8125</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43406.3125</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43406.8125</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43433.8125</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43434.3125</v>
       </c>
@@ -1498,7 +1506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43434.8125</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43457.8125</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43458.3125</v>
       </c>
@@ -1549,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43458.8125</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43459.3125</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43459.8125</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43463.8125</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43464.3125</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43464.8125</v>
       </c>
@@ -1651,7 +1659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43465.3125</v>
       </c>
@@ -1668,7 +1676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43465.8125</v>
       </c>
@@ -1692,18 +1700,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43831.3125</v>
       </c>
@@ -1731,13 +1739,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43831.8125</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43854.8125</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43855.3125</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43855.8125</v>
       </c>
@@ -1805,7 +1813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885.8125</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43886.3125</v>
       </c>
@@ -1836,10 +1844,10 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43886.8125</v>
       </c>
@@ -1856,7 +1864,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43929.8125</v>
       </c>
@@ -1867,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43930.3125</v>
       </c>
@@ -1890,7 +1898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43930.8125</v>
       </c>
@@ -1907,768 +1915,683 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>43930.8125</v>
+        <v>43931.3125</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43932.3125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43932.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43951.8125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43952.3125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43952.8125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43993.8125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43994.3125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43994.8125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44061.8125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44062.3125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44062.8125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44063.8125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44064.3125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44064.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>43931.3125</v>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44073.8125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44074.3125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44074.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44135.8125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44136.3125</v>
+      </c>
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>43931.8125</v>
-      </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44137.3125</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44137.8125</v>
+      </c>
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44164.8125</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>43931.8125</v>
-      </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44165.3125</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44165.8125</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44172.8125</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44173.3125</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44173.8125</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44188.8125</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44189.3125</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44190.3125</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44190.8125</v>
+      </c>
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44194.8125</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44195.3125</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44196.3125</v>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>43932.3125</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>43932.8125</v>
-      </c>
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>43951.8125</v>
-      </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>43952.3125</v>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>43952.8125</v>
-      </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>43993.8125</v>
-      </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>43994.3125</v>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>43994.8125</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>44061.8125</v>
-      </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>44062.3125</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>44062.8125</v>
-      </c>
-      <c r="B27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44063.8125</v>
-      </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44064.3125</v>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44064.8125</v>
-      </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>44073.8125</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44196.8125</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>44074.3125</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>44074.8125</v>
-      </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>44135.8125</v>
-      </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>44136.3125</v>
-      </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>44136.8125</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>44136.8125</v>
-      </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>44137.3125</v>
-      </c>
-      <c r="B38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>44137.8125</v>
-      </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>44164.8125</v>
-      </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44165.3125</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>44165.8125</v>
-      </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>44172.8125</v>
-      </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>44173.3125</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>44173.8125</v>
-      </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>44188.8125</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>44189.3125</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44189.8125</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44189.8125</v>
-      </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44190.3125</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44190.8125</v>
-      </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>44194.8125</v>
-      </c>
-      <c r="B52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>57</v>
-      </c>
       <c r="E52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>44195.3125</v>
-      </c>
-      <c r="B53" t="b">
-        <v>1</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>44195.8125</v>
-      </c>
-      <c r="B54" t="b">
-        <v>0</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>44195.8125</v>
-      </c>
-      <c r="B55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>44196.3125</v>
-      </c>
-      <c r="B56" t="b">
-        <v>1</v>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>44196.8125</v>
-      </c>
-      <c r="B57" t="b">
-        <v>0</v>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
         <v>36</v>
       </c>
     </row>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B6156B-8F38-4573-B086-745C8B207F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8606EB0-AB07-4FC8-8953-DC5A84F0429F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="3408" windowWidth="17280" windowHeight="9288" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8606EB0-AB07-4FC8-8953-DC5A84F0429F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B7942-BB82-4A00-A68C-D3B5C77BDD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="3408" windowWidth="17280" windowHeight="9288" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="6204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2082,7 +2082,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2130,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2150,7 +2150,7 @@
         <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85B7942-BB82-4A00-A68C-D3B5C77BDD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D7776-12F9-4996-A10C-407F0ECA2EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="6204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="68">
   <si>
     <t>ts</t>
   </si>
@@ -1700,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,887 +1711,806 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43831.3125</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43831.8125</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43854.8125</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43855.3125</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43855.8125</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43885.8125</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43886.3125</v>
       </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43886.8125</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43929.8125</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43930.3125</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43930.8125</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43931.3125</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43931.8125</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43932.3125</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43932.8125</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43951.8125</v>
       </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="E17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43952.3125</v>
       </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43952.8125</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <v>43983.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43983.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43984.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43984.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43985.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43985.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43986.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43986.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43987.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43987.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43988.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43988.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43989.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43989.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43990.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43990.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43991.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43991.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43992.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43992.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43993.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>43993.8125</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B41" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>43994.3125</v>
       </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B42" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="C42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>43994.8125</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44061.8125</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="E23" t="s">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44062.3125</v>
       </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
+      <c r="C45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44062.8125</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B46" t="s">
         <v>64</v>
       </c>
-      <c r="E25" t="s">
+      <c r="C46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44063.8125</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B47" t="s">
         <v>67</v>
       </c>
-      <c r="E26" t="s">
+      <c r="C47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44064.3125</v>
       </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="C48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44064.8125</v>
       </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-      <c r="E28" t="s">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44073.8125</v>
       </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="E29" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44074.3125</v>
       </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="E30" t="s">
+      <c r="C51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44074.8125</v>
       </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B52" t="s">
         <v>19</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>44135.8125</v>
       </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>44136.3125</v>
       </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>44136.8125</v>
       </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="E34" t="s">
+      <c r="C55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44137.3125</v>
       </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B56" t="s">
         <v>29</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>44137.8125</v>
       </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="C57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>44164.8125</v>
       </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B58" t="s">
         <v>55</v>
       </c>
-      <c r="E37" t="s">
+      <c r="C58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>44165.3125</v>
       </c>
-      <c r="B38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
+      <c r="C59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>44165.8125</v>
       </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B60" t="s">
         <v>33</v>
       </c>
-      <c r="E39" t="s">
+      <c r="C60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>44172.8125</v>
       </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B61" t="s">
         <v>44</v>
       </c>
-      <c r="E40" t="s">
+      <c r="C61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>44173.3125</v>
       </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="B62" t="s">
         <v>15</v>
       </c>
-      <c r="E41" t="s">
+      <c r="C62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>44173.8125</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="B63" t="s">
         <v>37</v>
       </c>
-      <c r="E42" t="s">
+      <c r="C63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>44188.8125</v>
       </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="B64" t="s">
         <v>23</v>
       </c>
-      <c r="E43" t="s">
+      <c r="C64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>44189.3125</v>
       </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="B65" t="s">
         <v>56</v>
       </c>
-      <c r="E44" t="s">
+      <c r="C65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>44189.8125</v>
       </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B66" t="s">
         <v>58</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C66" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>44190.3125</v>
       </c>
-      <c r="B46" t="b">
-        <v>1</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
+      <c r="C67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>44190.8125</v>
       </c>
-      <c r="B47" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B68" t="s">
         <v>41</v>
       </c>
-      <c r="E47" t="s">
+      <c r="C68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>44194.8125</v>
       </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B69" t="s">
         <v>57</v>
       </c>
-      <c r="E48" t="s">
+      <c r="C69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>44195.3125</v>
       </c>
-      <c r="B49" t="b">
-        <v>1</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B70" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>44195.8125</v>
       </c>
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" t="b">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B71" t="s">
         <v>66</v>
       </c>
-      <c r="E50" t="s">
+      <c r="C71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>44196.3125</v>
       </c>
-      <c r="B51" t="b">
-        <v>1</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="E51" t="s">
+      <c r="C72" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>44196.8125</v>
       </c>
-      <c r="B52" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B73" t="s">
         <v>52</v>
       </c>
-      <c r="E52" t="s">
+      <c r="C73" t="s">
         <v>36</v>
       </c>
     </row>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D7776-12F9-4996-A10C-407F0ECA2EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01898322-088A-4553-99D4-1D58AA04D904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
   <si>
     <t>ts</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Luz</t>
-  </si>
-  <si>
-    <t>MealSr</t>
   </si>
 </sst>
 </file>
@@ -1702,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2214,7 +2211,7 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,7 +2219,7 @@
         <v>44063.8125</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
@@ -2236,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,7 +2241,7 @@
         <v>44064.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>38</v>
@@ -2255,7 +2252,7 @@
         <v>44073.8125</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
         <v>10</v>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01898322-088A-4553-99D4-1D58AA04D904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF179AE7-6B7B-48C3-B515-B68B2212F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="2020" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1699,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2442,7 @@
         <v>44190.8125</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -2461,7 +2453,7 @@
         <v>44194.8125</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -2494,10 +2486,10 @@
         <v>44196.3125</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF179AE7-6B7B-48C3-B515-B68B2212F6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE9AED1-1F02-4408-9219-334D2F745822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2020" sheetId="3" r:id="rId3"/>
+    <sheet name="2021" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="70">
   <si>
     <t>ts</t>
   </si>
@@ -174,55 +175,64 @@
     <t>Sonny</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Tintin</t>
+  </si>
+  <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Tine</t>
+  </si>
+  <si>
+    <t>Jhoanne</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Jes</t>
+  </si>
+  <si>
+    <t>Harle</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t>Janine</t>
   </si>
   <si>
-    <t>Issa</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Tine</t>
-  </si>
-  <si>
-    <t>Jhoanne</t>
-  </si>
-  <si>
-    <t>James</t>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Julius</t>
   </si>
   <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Nora</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Julius</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>Harle</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>Tintin</t>
-  </si>
-  <si>
     <t>JK</t>
   </si>
   <si>
-    <t>Jes</t>
-  </si>
-  <si>
     <t>Luz</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>TOps</t>
+  </si>
+  <si>
+    <t>PISD</t>
   </si>
 </sst>
 </file>
@@ -593,7 +603,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1691,816 +1701,1764 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43831.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43831.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43854.8125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43855.3125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43855.8125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43885.8125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43886.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43886.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43929.8125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43930.3125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43930.8125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43931.3125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43931.8125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43932.3125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43932.8125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43951.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43952.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43952.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43983.3125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43983.8125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43984.3125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43984.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43985.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43985.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43986.3125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43986.8125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43987.3125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43987.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43988.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43988.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43989.3125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43989.8125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43990.3125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43990.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43991.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43991.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43992.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43992.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43993.3125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43993.8125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43994.3125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43994.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44061.8125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44062.3125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44062.8125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44063.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44064.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44064.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44073.8125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44074.3125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44074.8125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44135.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44136.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44136.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>44137.3125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>44137.8125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>44164.8125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>44165.3125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>44165.8125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>44172.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44173.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44173.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44188.8125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44189.3125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44189.8125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44190.3125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44190.8125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44194.8125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44195.3125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44195.8125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44196.3125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44196.8125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>43831.3125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
+        <v>44197.3125</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44197.8125</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44238.8125</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44239.3125</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44239.8125</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44251.8125</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44252.3125</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44252.8125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>44286.8125</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44287.3125</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44287.8125</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44288.3125</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44288.8125</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44289.3125</v>
+      </c>
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44289.8125</v>
+      </c>
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44294.8125</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44295.3125</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44295.8125</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44316.8125</v>
+      </c>
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44317.3125</v>
+      </c>
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44317.8125</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44358.8125</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44359.3125</v>
+      </c>
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44359.8125</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44426.8125</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44427.3125</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44427.8125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44428.8125</v>
+      </c>
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44429.3125</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44429.8125</v>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44437.8125</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44438.3125</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44438.8125</v>
+      </c>
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44500.8125</v>
+      </c>
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44501.3125</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44501.8125</v>
+      </c>
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>44502.3125</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>44502.8125</v>
+      </c>
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>44529.8125</v>
+      </c>
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>44530.3125</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>44530.8125</v>
+      </c>
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>44537.8125</v>
+      </c>
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>44538.3125</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>43831.8125</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44538.8125</v>
+      </c>
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44553.8125</v>
+      </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44554.3125</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44554.8125</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>44555.3125</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>44555.8125</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>44559.8125</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>44560.3125</v>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>44560.8125</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>43854.8125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>44561.3125</v>
+      </c>
+      <c r="B54" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>43855.3125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>43855.8125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>43885.8125</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>43886.3125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>43886.8125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>43929.8125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>43930.3125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>43930.8125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>43931.3125</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>44561.8125</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>43931.8125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>43932.3125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>43932.8125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>43951.8125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>43952.3125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>43952.8125</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E55" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>43983.3125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>43983.8125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>43984.3125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>43984.8125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>43985.3125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>43985.8125</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>43986.3125</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>43986.8125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>43987.3125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>43987.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>43988.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>43988.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>43989.3125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>43989.8125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>43990.3125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>43990.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>43991.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>43991.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>43992.3125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>43992.8125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>43993.3125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>43993.8125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>43994.3125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>43994.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>44061.8125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>44062.3125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>44062.8125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>44063.8125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>44064.3125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>44064.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>44073.8125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>44074.3125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>44074.8125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>44135.8125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>44136.3125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>44136.8125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>44137.3125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>44137.8125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>44164.8125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>44165.3125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>44165.8125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>44172.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>44173.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>44173.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>44188.8125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>44189.3125</v>
-      </c>
-      <c r="B65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>44189.8125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>44190.3125</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>44190.8125</v>
-      </c>
-      <c r="B68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>44194.8125</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>44195.3125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>44195.8125</v>
-      </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>44196.3125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>44196.8125</v>
-      </c>
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE9AED1-1F02-4408-9219-334D2F745822}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A136C8E-8EE1-48F9-A23E-6D34A6F50D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="70">
   <si>
     <t>ts</t>
   </si>
@@ -226,13 +226,13 @@
     <t>Luz</t>
   </si>
   <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>TOps</t>
-  </si>
-  <si>
-    <t>PISD</t>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Marj</t>
   </si>
 </sst>
 </file>
@@ -240,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -297,7 +296,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +602,13 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2515,10 +2517,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,939 +2528,609 @@
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44197.3125</v>
       </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44197.8125</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44238.8125</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44239.3125</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44239.8125</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44251.8125</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>61</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44252.3125</v>
       </c>
-      <c r="B8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44252.8125</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44286.8125</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44287.3125</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44287.8125</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44288.3125</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44288.8125</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44289.3125</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44289.8125</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44294.8125</v>
       </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44295.3125</v>
       </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44295.8125</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44316.8125</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44317.3125</v>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44317.8125</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44358.8125</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44359.3125</v>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44359.8125</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44426.8125</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44427.3125</v>
       </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44427.8125</v>
       </c>
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44428.8125</v>
       </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44429.3125</v>
       </c>
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44429.8125</v>
       </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44437.8125</v>
       </c>
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44438.3125</v>
       </c>
-      <c r="B33" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44438.8125</v>
       </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44500.8125</v>
       </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44501.3125</v>
       </c>
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>44501.8125</v>
       </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44502.3125</v>
       </c>
-      <c r="B38" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>44502.8125</v>
       </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>44529.8125</v>
       </c>
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>44530.3125</v>
       </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>44530.8125</v>
       </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>44537.8125</v>
       </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>44538.3125</v>
       </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44538.8125</v>
       </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44553.8125</v>
       </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>44554.3125</v>
       </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47" t="b">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>44554.8125</v>
       </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-      <c r="D48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="B48" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>44555.3125</v>
       </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>44555.8125</v>
       </c>
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>44559.8125</v>
       </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" t="b">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>44560.3125</v>
       </c>
-      <c r="B52" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" t="b">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>44560.8125</v>
       </c>
-      <c r="B53" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" t="b">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>44561.3125</v>
       </c>
-      <c r="B54" t="b">
-        <v>1</v>
-      </c>
-      <c r="C54" t="b">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>44561.8125</v>
       </c>
-      <c r="B55" t="b">
-        <v>0</v>
-      </c>
-      <c r="C55" t="b">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" t="s">
-        <v>61</v>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A136C8E-8EE1-48F9-A23E-6D34A6F50D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8FAAC-87DF-44F6-AFC7-9713851CF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="75">
   <si>
     <t>ts</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>Marj</t>
+  </si>
+  <si>
+    <t>Edch</t>
+  </si>
+  <si>
+    <t>Milky</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Jacq</t>
   </si>
 </sst>
 </file>
@@ -240,9 +255,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +269,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,12 +312,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,12 +627,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43466.3125</v>
       </c>
@@ -644,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43466.8125</v>
       </c>
@@ -661,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43563.8125</v>
       </c>
@@ -678,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43564.3125</v>
       </c>
@@ -695,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43564.8125</v>
       </c>
@@ -712,7 +734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43572.8125</v>
       </c>
@@ -729,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43573.3125</v>
       </c>
@@ -746,7 +768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43573.8125</v>
       </c>
@@ -763,7 +785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43573.8125</v>
       </c>
@@ -780,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43574.3125</v>
       </c>
@@ -797,7 +819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43574.8125</v>
       </c>
@@ -814,7 +836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43585.8125</v>
       </c>
@@ -831,7 +853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43586.3125</v>
       </c>
@@ -848,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43586.8125</v>
       </c>
@@ -865,7 +887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43627.8125</v>
       </c>
@@ -882,7 +904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43628.3125</v>
       </c>
@@ -899,7 +921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43628.8125</v>
       </c>
@@ -916,7 +938,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43702.8125</v>
       </c>
@@ -933,7 +955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43703.3125</v>
       </c>
@@ -950,7 +972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43703.8125</v>
       </c>
@@ -967,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43798.8125</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43799.3125</v>
       </c>
@@ -1001,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43799.8125</v>
       </c>
@@ -1018,7 +1040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43823.8125</v>
       </c>
@@ -1035,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43824.3125</v>
       </c>
@@ -1052,7 +1074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43824.8125</v>
       </c>
@@ -1069,7 +1091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43828.8125</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43829.3125</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43829.8125</v>
       </c>
@@ -1131,9 +1153,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43221.3125</v>
       </c>
@@ -1167,7 +1189,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43221.8125</v>
       </c>
@@ -1184,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43262.8125</v>
       </c>
@@ -1201,7 +1223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43263.3125</v>
       </c>
@@ -1218,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43263.8125</v>
       </c>
@@ -1235,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43330.8125</v>
       </c>
@@ -1252,7 +1274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43331.3125</v>
       </c>
@@ -1269,7 +1291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43331.8125</v>
       </c>
@@ -1286,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43332.8125</v>
       </c>
@@ -1303,7 +1325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43333.3125</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43333.8125</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43338.8125</v>
       </c>
@@ -1354,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43339.3125</v>
       </c>
@@ -1371,7 +1393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43339.8125</v>
       </c>
@@ -1388,7 +1410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43404.8125</v>
       </c>
@@ -1405,7 +1427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43405.3125</v>
       </c>
@@ -1422,7 +1444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43405.8125</v>
       </c>
@@ -1439,7 +1461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43406.3125</v>
       </c>
@@ -1456,7 +1478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43406.8125</v>
       </c>
@@ -1473,7 +1495,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43433.8125</v>
       </c>
@@ -1490,7 +1512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43434.3125</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43434.8125</v>
       </c>
@@ -1524,7 +1546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43457.8125</v>
       </c>
@@ -1541,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43458.3125</v>
       </c>
@@ -1558,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43458.8125</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43459.3125</v>
       </c>
@@ -1592,7 +1614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43459.8125</v>
       </c>
@@ -1609,7 +1631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43463.8125</v>
       </c>
@@ -1626,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43464.3125</v>
       </c>
@@ -1643,7 +1665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43464.8125</v>
       </c>
@@ -1660,7 +1682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43465.3125</v>
       </c>
@@ -1677,7 +1699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43465.8125</v>
       </c>
@@ -1705,9 +1727,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43831.3125</v>
       </c>
@@ -1729,7 +1751,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43831.8125</v>
       </c>
@@ -1740,7 +1762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43854.8125</v>
       </c>
@@ -1751,7 +1773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43855.3125</v>
       </c>
@@ -1762,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43855.8125</v>
       </c>
@@ -1773,7 +1795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43885.8125</v>
       </c>
@@ -1784,7 +1806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43886.3125</v>
       </c>
@@ -1795,7 +1817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43886.8125</v>
       </c>
@@ -1806,7 +1828,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43929.8125</v>
       </c>
@@ -1817,7 +1839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43930.3125</v>
       </c>
@@ -1828,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43930.8125</v>
       </c>
@@ -1839,7 +1861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43931.3125</v>
       </c>
@@ -1850,7 +1872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43931.8125</v>
       </c>
@@ -1861,7 +1883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43932.3125</v>
       </c>
@@ -1872,7 +1894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43932.8125</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43951.8125</v>
       </c>
@@ -1894,7 +1916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43952.3125</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43952.8125</v>
       </c>
@@ -1916,7 +1938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43983.3125</v>
       </c>
@@ -1927,7 +1949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43983.8125</v>
       </c>
@@ -1938,7 +1960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43984.3125</v>
       </c>
@@ -1949,7 +1971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43984.8125</v>
       </c>
@@ -1960,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43985.3125</v>
       </c>
@@ -1971,7 +1993,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43985.8125</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43986.3125</v>
       </c>
@@ -1993,7 +2015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43986.8125</v>
       </c>
@@ -2004,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43987.3125</v>
       </c>
@@ -2015,7 +2037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43987.8125</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43988.3125</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43988.8125</v>
       </c>
@@ -2048,7 +2070,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43989.3125</v>
       </c>
@@ -2059,7 +2081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43989.8125</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43990.3125</v>
       </c>
@@ -2081,7 +2103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43990.8125</v>
       </c>
@@ -2092,7 +2114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43991.3125</v>
       </c>
@@ -2103,7 +2125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43991.8125</v>
       </c>
@@ -2114,7 +2136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43992.3125</v>
       </c>
@@ -2125,7 +2147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43992.8125</v>
       </c>
@@ -2136,7 +2158,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43993.3125</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43993.8125</v>
       </c>
@@ -2158,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43994.3125</v>
       </c>
@@ -2169,7 +2191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43994.8125</v>
       </c>
@@ -2180,7 +2202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44061.8125</v>
       </c>
@@ -2191,7 +2213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44062.3125</v>
       </c>
@@ -2202,7 +2224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44062.8125</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44063.8125</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44064.3125</v>
       </c>
@@ -2235,7 +2257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44064.8125</v>
       </c>
@@ -2246,7 +2268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44073.8125</v>
       </c>
@@ -2257,7 +2279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44074.3125</v>
       </c>
@@ -2268,7 +2290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44074.8125</v>
       </c>
@@ -2279,7 +2301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44135.8125</v>
       </c>
@@ -2290,7 +2312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44136.3125</v>
       </c>
@@ -2301,7 +2323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44136.8125</v>
       </c>
@@ -2312,7 +2334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>44137.3125</v>
       </c>
@@ -2323,7 +2345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>44137.8125</v>
       </c>
@@ -2334,7 +2356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>44164.8125</v>
       </c>
@@ -2345,7 +2367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>44165.3125</v>
       </c>
@@ -2356,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>44165.8125</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>44172.8125</v>
       </c>
@@ -2378,7 +2400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>44173.3125</v>
       </c>
@@ -2389,7 +2411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44173.8125</v>
       </c>
@@ -2400,7 +2422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44188.8125</v>
       </c>
@@ -2411,7 +2433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44189.3125</v>
       </c>
@@ -2422,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44189.8125</v>
       </c>
@@ -2433,7 +2455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44190.3125</v>
       </c>
@@ -2444,7 +2466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44190.8125</v>
       </c>
@@ -2455,7 +2477,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44194.8125</v>
       </c>
@@ -2466,7 +2488,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44195.3125</v>
       </c>
@@ -2477,7 +2499,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44195.8125</v>
       </c>
@@ -2488,7 +2510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44196.3125</v>
       </c>
@@ -2499,7 +2521,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44196.8125</v>
       </c>
@@ -2519,16 +2541,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2539,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44197.3125</v>
       </c>
@@ -2550,7 +2572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44197.8125</v>
       </c>
@@ -2561,7 +2583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44238.8125</v>
       </c>
@@ -2572,7 +2594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44239.3125</v>
       </c>
@@ -2583,7 +2605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44239.8125</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44251.8125</v>
       </c>
@@ -2605,7 +2627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44252.3125</v>
       </c>
@@ -2616,7 +2638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44252.8125</v>
       </c>
@@ -2627,7 +2649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44286.8125</v>
       </c>
@@ -2638,7 +2660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44287.3125</v>
       </c>
@@ -2649,7 +2671,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44287.8125</v>
       </c>
@@ -2660,7 +2682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44288.3125</v>
       </c>
@@ -2671,7 +2693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44288.8125</v>
       </c>
@@ -2682,7 +2704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44289.3125</v>
       </c>
@@ -2693,7 +2715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44289.8125</v>
       </c>
@@ -2704,7 +2726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44294.8125</v>
       </c>
@@ -2715,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44295.3125</v>
       </c>
@@ -2726,7 +2748,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44295.8125</v>
       </c>
@@ -2737,7 +2759,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44316.8125</v>
       </c>
@@ -2748,7 +2770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44317.3125</v>
       </c>
@@ -2759,7 +2781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44317.8125</v>
       </c>
@@ -2770,7 +2792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44358.8125</v>
       </c>
@@ -2781,7 +2803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44359.3125</v>
       </c>
@@ -2792,7 +2814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44359.8125</v>
       </c>
@@ -2803,29 +2825,29 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44426.8125</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44427.3125</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44427.8125</v>
       </c>
@@ -2836,7 +2858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44428.8125</v>
       </c>
@@ -2847,7 +2869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44429.3125</v>
       </c>
@@ -2858,18 +2880,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44429.8125</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44437.8125</v>
       </c>
@@ -2877,21 +2899,21 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>44438.3125</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>44438.8125</v>
       </c>
@@ -2902,7 +2924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>44500.8125</v>
       </c>
@@ -2913,7 +2935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>44501.3125</v>
       </c>
@@ -2924,7 +2946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>44501.8125</v>
       </c>
@@ -2935,7 +2957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>44502.3125</v>
       </c>
@@ -2946,7 +2968,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>44502.8125</v>
       </c>
@@ -2957,40 +2979,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>44529.8125</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>44530.3125</v>
       </c>
-      <c r="B41" t="s">
-        <v>40</v>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>44530.8125</v>
       </c>
-      <c r="B42" t="s">
-        <v>38</v>
+      <c r="B42" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>44537.8125</v>
       </c>
@@ -3001,7 +3023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>44538.3125</v>
       </c>
@@ -3012,7 +3034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44538.8125</v>
       </c>
@@ -3023,7 +3045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44553.8125</v>
       </c>
@@ -3034,7 +3056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>44554.3125</v>
       </c>
@@ -3045,7 +3067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>44554.8125</v>
       </c>
@@ -3056,7 +3078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>44555.3125</v>
       </c>
@@ -3067,7 +3089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>44555.8125</v>
       </c>
@@ -3078,7 +3100,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>44559.8125</v>
       </c>
@@ -3089,7 +3111,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>44560.3125</v>
       </c>
@@ -3100,7 +3122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44560.8125</v>
       </c>
@@ -3111,7 +3133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>44561.3125</v>
       </c>
@@ -3122,7 +3144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>44561.8125</v>
       </c>
@@ -3135,5 +3157,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D8FAAC-87DF-44F6-AFC7-9713851CF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476C0F2-B394-4FF5-BE09-43CA4D8170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="2020" sheetId="3" r:id="rId3"/>
     <sheet name="2021" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="78">
   <si>
     <t>ts</t>
   </si>
@@ -248,6 +248,15 @@
   </si>
   <si>
     <t>Jacq</t>
+  </si>
+  <si>
+    <t>Rasty</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Jaja</t>
   </si>
 </sst>
 </file>
@@ -257,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +278,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -276,13 +286,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -312,13 +358,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1725,9 +1780,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2541,8 +2601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,86 +2989,86 @@
         <v>44500.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+        <v>16</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>44501.3125</v>
       </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="B36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>44501.8125</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>44502.3125</v>
       </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>44502.8125</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>44529.8125</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>44530.3125</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>44530.3125</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="C41" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>44530.8125</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3027,11 +3087,11 @@
       <c r="A44" s="2">
         <v>44538.3125</v>
       </c>
-      <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>29</v>
+      <c r="B44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,8 +3101,8 @@
       <c r="B45" t="s">
         <v>69</v>
       </c>
-      <c r="C45" t="s">
-        <v>41</v>
+      <c r="C45" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,8 +3123,8 @@
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,8 +3134,8 @@
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s">
-        <v>27</v>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,8 +3200,8 @@
       <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" t="s">
-        <v>51</v>
+      <c r="C54" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7476C0F2-B394-4FF5-BE09-43CA4D8170FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93333FBA-4206-444C-B490-CC395FE6FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="2850" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2018" sheetId="2" r:id="rId2"/>
     <sheet name="2020" sheetId="3" r:id="rId3"/>
     <sheet name="2021" sheetId="4" r:id="rId4"/>
+    <sheet name="2022" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="143">
   <si>
     <t>ts</t>
   </si>
@@ -253,20 +254,217 @@
     <t>Rasty</t>
   </si>
   <si>
-    <t>Rain</t>
-  </si>
-  <si>
     <t>Jaja</t>
+  </si>
+  <si>
+    <t>2022-01-01 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-01-01 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-01-31 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-01 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-24 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-25 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-08 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-09 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-01 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-02-25 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-09 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-13 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-14 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-14 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-15 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-15 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-16 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-16 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-30 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-01 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-01 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-06-11 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-06-12 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-06-12 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-18 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-19 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-19 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-20 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-21 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-21 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-28 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-29 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-29 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-10-31 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-01 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-01 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-02 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-02 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-29 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-30 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-30 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-07 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-08 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-08 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-23 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-24 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-24 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-25 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-25 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-29 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-30 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-30 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-31 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-31 19:30:00</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>New2</t>
+  </si>
+  <si>
+    <t>New5</t>
+  </si>
+  <si>
+    <t>New8</t>
+  </si>
+  <si>
+    <t>New4</t>
+  </si>
+  <si>
+    <t>New6</t>
+  </si>
+  <si>
+    <t>New1</t>
+  </si>
+  <si>
+    <t>New3</t>
+  </si>
+  <si>
+    <t>New9</t>
+  </si>
+  <si>
+    <t>New10</t>
+  </si>
+  <si>
+    <t>New7</t>
+  </si>
+  <si>
+    <t>New11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd/hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +514,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,11 +564,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -374,6 +599,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3264,7 @@
         <v>44502.8125</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>53</v>
@@ -3091,7 +3322,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,11 +3428,11 @@
       <c r="A54" s="2">
         <v>44561.3125</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,4 +3450,654 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2CE534-2D30-49B3-8CB6-D744CFA431A5}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meryll\Dyna\monitoring\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93333FBA-4206-444C-B490-CC395FE6FFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2850" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="14400" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="2021" sheetId="4" r:id="rId4"/>
     <sheet name="2022" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="147">
   <si>
     <t>ts</t>
   </si>
@@ -227,67 +221,94 @@
     <t>Luz</t>
   </si>
   <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Marj</t>
+  </si>
+  <si>
+    <t>Heinz</t>
+  </si>
+  <si>
+    <t>Edch</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Jacq</t>
+  </si>
+  <si>
+    <t>Milky</t>
+  </si>
+  <si>
+    <t>Rasty</t>
+  </si>
+  <si>
+    <t>Jaja</t>
+  </si>
+  <si>
     <t>Karl</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Marj</t>
-  </si>
-  <si>
-    <t>Edch</t>
-  </si>
-  <si>
-    <t>Milky</t>
-  </si>
-  <si>
-    <t>Heinz</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Jacq</t>
-  </si>
-  <si>
-    <t>Rasty</t>
-  </si>
-  <si>
-    <t>Jaja</t>
+    <t>2022-01-01 07:30:00</t>
   </si>
   <si>
     <t>2022-01-01 19:30:00</t>
   </si>
   <si>
-    <t>2022-01-01 07:30:00</t>
+    <t>Don</t>
   </si>
   <si>
     <t>2022-01-31 19:30:00</t>
   </si>
   <si>
+    <t>2022-02-01 7:30:00</t>
+  </si>
+  <si>
     <t>2022-02-01 19:30:00</t>
   </si>
   <si>
     <t>2022-02-24 19:30:00</t>
   </si>
   <si>
+    <t>2022-02-25 7:30:00</t>
+  </si>
+  <si>
     <t>2022-02-25 19:30:00</t>
   </si>
   <si>
+    <t>2022-04-05 07:30:00</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>2022-04-06 07:30:00</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
     <t>2022-04-08 19:30:00</t>
   </si>
   <si>
+    <t>Chatty</t>
+  </si>
+  <si>
+    <t>2022-04-09 7:30:00</t>
+  </si>
+  <si>
     <t>2022-04-09 19:30:00</t>
   </si>
   <si>
-    <t>2022-02-01 7:30:00</t>
-  </si>
-  <si>
-    <t>2022-02-25 7:30:00</t>
-  </si>
-  <si>
-    <t>2022-04-09 7:30:00</t>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>2022-04-12 07:30:00</t>
+  </si>
+  <si>
+    <t>Nichi</t>
   </si>
   <si>
     <t>2022-04-13 19:30:00</t>
@@ -311,6 +332,18 @@
     <t>2022-04-16 19:30:00</t>
   </si>
   <si>
+    <t>2022-04-19 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-04-20 19:30:00</t>
+  </si>
+  <si>
+    <t>Balbas</t>
+  </si>
+  <si>
+    <t>2022-04-27 07:30:00</t>
+  </si>
+  <si>
     <t>2022-04-30 19:30:00</t>
   </si>
   <si>
@@ -335,9 +368,15 @@
     <t>2022-08-19 7:30:00</t>
   </si>
   <si>
+    <t>New9</t>
+  </si>
+  <si>
     <t>2022-08-19 19:30:00</t>
   </si>
   <si>
+    <t>New7</t>
+  </si>
+  <si>
     <t>2022-08-20 19:30:00</t>
   </si>
   <si>
@@ -380,6 +419,9 @@
     <t>2022-11-30 19:30:00</t>
   </si>
   <si>
+    <t>New8</t>
+  </si>
+  <si>
     <t>2022-12-07 19:30:00</t>
   </si>
   <si>
@@ -417,78 +459,26 @@
   </si>
   <si>
     <t>2022-12-31 19:30:00</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>New2</t>
-  </si>
-  <si>
-    <t>New5</t>
-  </si>
-  <si>
-    <t>New8</t>
-  </si>
-  <si>
-    <t>New4</t>
-  </si>
-  <si>
-    <t>New6</t>
-  </si>
-  <si>
-    <t>New1</t>
-  </si>
-  <si>
-    <t>New3</t>
-  </si>
-  <si>
-    <t>New9</t>
-  </si>
-  <si>
-    <t>New10</t>
-  </si>
-  <si>
-    <t>New7</t>
-  </si>
-  <si>
-    <t>New11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd/hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +486,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,30 +512,183 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,8 +701,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -579,44 +926,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -901,42 +1546,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
         <v>43466.3125</v>
       </c>
       <c r="B2" t="b">
@@ -952,8 +1597,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>43466.8125</v>
       </c>
       <c r="B3" t="b">
@@ -969,8 +1614,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
         <v>43563.8125</v>
       </c>
       <c r="B4" t="b">
@@ -986,8 +1631,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
         <v>43564.3125</v>
       </c>
       <c r="B5" t="b">
@@ -1003,8 +1648,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
         <v>43564.8125</v>
       </c>
       <c r="B6" t="b">
@@ -1020,8 +1665,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
         <v>43572.8125</v>
       </c>
       <c r="B7" t="b">
@@ -1037,8 +1682,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
         <v>43573.3125</v>
       </c>
       <c r="B8" t="b">
@@ -1054,8 +1699,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>43573.8125</v>
       </c>
       <c r="B9" t="b">
@@ -1071,8 +1716,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
         <v>43573.8125</v>
       </c>
       <c r="B10" t="b">
@@ -1088,8 +1733,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>43574.3125</v>
       </c>
       <c r="B11" t="b">
@@ -1105,8 +1750,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>43574.8125</v>
       </c>
       <c r="B12" t="b">
@@ -1122,8 +1767,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>43585.8125</v>
       </c>
       <c r="B13" t="b">
@@ -1139,8 +1784,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
         <v>43586.3125</v>
       </c>
       <c r="B14" t="b">
@@ -1156,8 +1801,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5">
+      <c r="A15" s="12">
         <v>43586.8125</v>
       </c>
       <c r="B15" t="b">
@@ -1173,8 +1818,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
         <v>43627.8125</v>
       </c>
       <c r="B16" t="b">
@@ -1190,8 +1835,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
         <v>43628.3125</v>
       </c>
       <c r="B17" t="b">
@@ -1207,8 +1852,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
         <v>43628.8125</v>
       </c>
       <c r="B18" t="b">
@@ -1224,8 +1869,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>43702.8125</v>
       </c>
       <c r="B19" t="b">
@@ -1241,8 +1886,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
         <v>43703.3125</v>
       </c>
       <c r="B20" t="b">
@@ -1258,8 +1903,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
         <v>43703.8125</v>
       </c>
       <c r="B21" t="b">
@@ -1275,8 +1920,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
         <v>43798.8125</v>
       </c>
       <c r="B22" t="b">
@@ -1292,8 +1937,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
         <v>43799.3125</v>
       </c>
       <c r="B23" t="b">
@@ -1309,8 +1954,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
         <v>43799.8125</v>
       </c>
       <c r="B24" t="b">
@@ -1326,8 +1971,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
         <v>43823.8125</v>
       </c>
       <c r="B25" t="b">
@@ -1343,8 +1988,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
         <v>43824.3125</v>
       </c>
       <c r="B26" t="b">
@@ -1360,8 +2005,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>43824.8125</v>
       </c>
       <c r="B27" t="b">
@@ -1377,8 +2022,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
         <v>43828.8125</v>
       </c>
       <c r="B28" t="b">
@@ -1394,8 +2039,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
         <v>43829.3125</v>
       </c>
       <c r="B29" t="b">
@@ -1411,8 +2056,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
         <v>43829.8125</v>
       </c>
       <c r="B30" t="b">
@@ -1430,36 +2075,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="12">
         <v>43221.3125</v>
       </c>
       <c r="B2" t="b">
@@ -1475,8 +2124,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:5">
+      <c r="A3" s="12">
         <v>43221.8125</v>
       </c>
       <c r="B3" t="b">
@@ -1492,8 +2141,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5">
+      <c r="A4" s="12">
         <v>43262.8125</v>
       </c>
       <c r="B4" t="b">
@@ -1509,8 +2158,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5">
+      <c r="A5" s="12">
         <v>43263.3125</v>
       </c>
       <c r="B5" t="b">
@@ -1526,8 +2175,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5">
+      <c r="A6" s="12">
         <v>43263.8125</v>
       </c>
       <c r="B6" t="b">
@@ -1543,8 +2192,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5">
+      <c r="A7" s="12">
         <v>43330.8125</v>
       </c>
       <c r="B7" t="b">
@@ -1560,8 +2209,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:5">
+      <c r="A8" s="12">
         <v>43331.3125</v>
       </c>
       <c r="B8" t="b">
@@ -1577,8 +2226,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5">
+      <c r="A9" s="12">
         <v>43331.8125</v>
       </c>
       <c r="B9" t="b">
@@ -1594,8 +2243,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5">
+      <c r="A10" s="12">
         <v>43332.8125</v>
       </c>
       <c r="B10" t="b">
@@ -1611,8 +2260,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:5">
+      <c r="A11" s="12">
         <v>43333.3125</v>
       </c>
       <c r="B11" t="b">
@@ -1628,8 +2277,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:5">
+      <c r="A12" s="12">
         <v>43333.8125</v>
       </c>
       <c r="B12" t="b">
@@ -1645,8 +2294,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:5">
+      <c r="A13" s="12">
         <v>43338.8125</v>
       </c>
       <c r="B13" t="b">
@@ -1662,8 +2311,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:5">
+      <c r="A14" s="12">
         <v>43339.3125</v>
       </c>
       <c r="B14" t="b">
@@ -1679,8 +2328,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:5">
+      <c r="A15" s="12">
         <v>43339.8125</v>
       </c>
       <c r="B15" t="b">
@@ -1696,8 +2345,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:5">
+      <c r="A16" s="12">
         <v>43404.8125</v>
       </c>
       <c r="B16" t="b">
@@ -1713,8 +2362,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:5">
+      <c r="A17" s="12">
         <v>43405.3125</v>
       </c>
       <c r="B17" t="b">
@@ -1730,8 +2379,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:5">
+      <c r="A18" s="12">
         <v>43405.8125</v>
       </c>
       <c r="B18" t="b">
@@ -1747,8 +2396,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:5">
+      <c r="A19" s="12">
         <v>43406.3125</v>
       </c>
       <c r="B19" t="b">
@@ -1764,8 +2413,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:5">
+      <c r="A20" s="12">
         <v>43406.8125</v>
       </c>
       <c r="B20" t="b">
@@ -1781,8 +2430,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:5">
+      <c r="A21" s="12">
         <v>43433.8125</v>
       </c>
       <c r="B21" t="b">
@@ -1798,8 +2447,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:5">
+      <c r="A22" s="12">
         <v>43434.3125</v>
       </c>
       <c r="B22" t="b">
@@ -1815,8 +2464,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="12">
         <v>43434.8125</v>
       </c>
       <c r="B23" t="b">
@@ -1832,8 +2481,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:5">
+      <c r="A24" s="12">
         <v>43457.8125</v>
       </c>
       <c r="B24" t="b">
@@ -1849,8 +2498,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:5">
+      <c r="A25" s="12">
         <v>43458.3125</v>
       </c>
       <c r="B25" t="b">
@@ -1866,8 +2515,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:5">
+      <c r="A26" s="12">
         <v>43458.8125</v>
       </c>
       <c r="B26" t="b">
@@ -1883,8 +2532,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:5">
+      <c r="A27" s="12">
         <v>43459.3125</v>
       </c>
       <c r="B27" t="b">
@@ -1900,8 +2549,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:5">
+      <c r="A28" s="12">
         <v>43459.8125</v>
       </c>
       <c r="B28" t="b">
@@ -1917,8 +2566,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:5">
+      <c r="A29" s="12">
         <v>43463.8125</v>
       </c>
       <c r="B29" t="b">
@@ -1934,8 +2583,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:5">
+      <c r="A30" s="12">
         <v>43464.3125</v>
       </c>
       <c r="B30" t="b">
@@ -1951,8 +2600,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:5">
+      <c r="A31" s="12">
         <v>43464.8125</v>
       </c>
       <c r="B31" t="b">
@@ -1968,8 +2617,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:5">
+      <c r="A32" s="12">
         <v>43465.3125</v>
       </c>
       <c r="B32" t="b">
@@ -1985,8 +2634,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
         <v>43465.8125</v>
       </c>
       <c r="B33" t="b">
@@ -2004,35 +2653,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
         <v>43831.3125</v>
       </c>
       <c r="B2" t="s">
@@ -2042,8 +2693,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
         <v>43831.8125</v>
       </c>
       <c r="B3" t="s">
@@ -2053,8 +2704,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
         <v>43854.8125</v>
       </c>
       <c r="B4" t="s">
@@ -2064,8 +2715,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
         <v>43855.3125</v>
       </c>
       <c r="B5" t="s">
@@ -2075,8 +2726,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
         <v>43855.8125</v>
       </c>
       <c r="B6" t="s">
@@ -2086,8 +2737,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
         <v>43885.8125</v>
       </c>
       <c r="B7" t="s">
@@ -2097,8 +2748,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
         <v>43886.3125</v>
       </c>
       <c r="B8" t="s">
@@ -2108,8 +2759,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
         <v>43886.8125</v>
       </c>
       <c r="B9" t="s">
@@ -2119,8 +2770,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
         <v>43929.8125</v>
       </c>
       <c r="B10" t="s">
@@ -2130,8 +2781,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
         <v>43930.3125</v>
       </c>
       <c r="B11" t="s">
@@ -2141,8 +2792,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" s="12">
         <v>43930.8125</v>
       </c>
       <c r="B12" t="s">
@@ -2152,8 +2803,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
         <v>43931.3125</v>
       </c>
       <c r="B13" t="s">
@@ -2163,8 +2814,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
         <v>43931.8125</v>
       </c>
       <c r="B14" t="s">
@@ -2174,8 +2825,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
         <v>43932.3125</v>
       </c>
       <c r="B15" t="s">
@@ -2185,8 +2836,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="12">
         <v>43932.8125</v>
       </c>
       <c r="B16" t="s">
@@ -2196,8 +2847,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:3">
+      <c r="A17" s="12">
         <v>43951.8125</v>
       </c>
       <c r="B17" t="s">
@@ -2207,8 +2858,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:3">
+      <c r="A18" s="12">
         <v>43952.3125</v>
       </c>
       <c r="B18" t="s">
@@ -2218,8 +2869,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:3">
+      <c r="A19" s="12">
         <v>43952.8125</v>
       </c>
       <c r="B19" t="s">
@@ -2229,8 +2880,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:3">
+      <c r="A20" s="12">
         <v>43983.3125</v>
       </c>
       <c r="B20" t="s">
@@ -2240,8 +2891,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="12">
         <v>43983.8125</v>
       </c>
       <c r="B21" t="s">
@@ -2251,8 +2902,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
         <v>43984.3125</v>
       </c>
       <c r="B22" t="s">
@@ -2262,8 +2913,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3">
+      <c r="A23" s="12">
         <v>43984.8125</v>
       </c>
       <c r="B23" t="s">
@@ -2273,8 +2924,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:3">
+      <c r="A24" s="12">
         <v>43985.3125</v>
       </c>
       <c r="B24" t="s">
@@ -2284,8 +2935,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:3">
+      <c r="A25" s="12">
         <v>43985.8125</v>
       </c>
       <c r="B25" t="s">
@@ -2295,8 +2946,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:3">
+      <c r="A26" s="12">
         <v>43986.3125</v>
       </c>
       <c r="B26" t="s">
@@ -2306,8 +2957,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="12">
         <v>43986.8125</v>
       </c>
       <c r="B27" t="s">
@@ -2317,8 +2968,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:3">
+      <c r="A28" s="12">
         <v>43987.3125</v>
       </c>
       <c r="B28" t="s">
@@ -2328,8 +2979,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:3">
+      <c r="A29" s="12">
         <v>43987.8125</v>
       </c>
       <c r="B29" t="s">
@@ -2339,8 +2990,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:3">
+      <c r="A30" s="12">
         <v>43988.3125</v>
       </c>
       <c r="B30" t="s">
@@ -2350,8 +3001,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:3">
+      <c r="A31" s="12">
         <v>43988.8125</v>
       </c>
       <c r="B31" t="s">
@@ -2361,8 +3012,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:3">
+      <c r="A32" s="12">
         <v>43989.3125</v>
       </c>
       <c r="B32" t="s">
@@ -2372,8 +3023,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:3">
+      <c r="A33" s="12">
         <v>43989.8125</v>
       </c>
       <c r="B33" t="s">
@@ -2383,8 +3034,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:3">
+      <c r="A34" s="12">
         <v>43990.3125</v>
       </c>
       <c r="B34" t="s">
@@ -2394,8 +3045,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:3">
+      <c r="A35" s="12">
         <v>43990.8125</v>
       </c>
       <c r="B35" t="s">
@@ -2405,8 +3056,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:3">
+      <c r="A36" s="12">
         <v>43991.3125</v>
       </c>
       <c r="B36" t="s">
@@ -2416,8 +3067,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:3">
+      <c r="A37" s="12">
         <v>43991.8125</v>
       </c>
       <c r="B37" t="s">
@@ -2427,8 +3078,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:3">
+      <c r="A38" s="12">
         <v>43992.3125</v>
       </c>
       <c r="B38" t="s">
@@ -2438,8 +3089,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="12">
         <v>43992.8125</v>
       </c>
       <c r="B39" t="s">
@@ -2449,8 +3100,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:3">
+      <c r="A40" s="12">
         <v>43993.3125</v>
       </c>
       <c r="B40" t="s">
@@ -2460,8 +3111,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:3">
+      <c r="A41" s="12">
         <v>43993.8125</v>
       </c>
       <c r="B41" t="s">
@@ -2471,8 +3122,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:3">
+      <c r="A42" s="12">
         <v>43994.3125</v>
       </c>
       <c r="B42" t="s">
@@ -2482,8 +3133,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="12">
         <v>43994.8125</v>
       </c>
       <c r="B43" t="s">
@@ -2493,8 +3144,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:3">
+      <c r="A44" s="12">
         <v>44061.8125</v>
       </c>
       <c r="B44" t="s">
@@ -2504,8 +3155,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:3">
+      <c r="A45" s="12">
         <v>44062.3125</v>
       </c>
       <c r="B45" t="s">
@@ -2515,8 +3166,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:3">
+      <c r="A46" s="12">
         <v>44062.8125</v>
       </c>
       <c r="B46" t="s">
@@ -2526,8 +3177,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:3">
+      <c r="A47" s="12">
         <v>44063.8125</v>
       </c>
       <c r="B47" t="s">
@@ -2537,8 +3188,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:3">
+      <c r="A48" s="12">
         <v>44064.3125</v>
       </c>
       <c r="B48" t="s">
@@ -2548,8 +3199,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:3">
+      <c r="A49" s="12">
         <v>44064.8125</v>
       </c>
       <c r="B49" t="s">
@@ -2559,8 +3210,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:3">
+      <c r="A50" s="12">
         <v>44073.8125</v>
       </c>
       <c r="B50" t="s">
@@ -2570,8 +3221,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:3">
+      <c r="A51" s="12">
         <v>44074.3125</v>
       </c>
       <c r="B51" t="s">
@@ -2581,8 +3232,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:3">
+      <c r="A52" s="12">
         <v>44074.8125</v>
       </c>
       <c r="B52" t="s">
@@ -2592,8 +3243,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:3">
+      <c r="A53" s="12">
         <v>44135.8125</v>
       </c>
       <c r="B53" t="s">
@@ -2603,8 +3254,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:3">
+      <c r="A54" s="12">
         <v>44136.3125</v>
       </c>
       <c r="B54" t="s">
@@ -2614,8 +3265,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:3">
+      <c r="A55" s="12">
         <v>44136.8125</v>
       </c>
       <c r="B55" t="s">
@@ -2625,8 +3276,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:3">
+      <c r="A56" s="12">
         <v>44137.3125</v>
       </c>
       <c r="B56" t="s">
@@ -2636,8 +3287,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:3">
+      <c r="A57" s="12">
         <v>44137.8125</v>
       </c>
       <c r="B57" t="s">
@@ -2647,8 +3298,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="12">
         <v>44164.8125</v>
       </c>
       <c r="B58" t="s">
@@ -2658,8 +3309,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="12">
         <v>44165.3125</v>
       </c>
       <c r="B59" t="s">
@@ -2669,8 +3320,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="12">
         <v>44165.8125</v>
       </c>
       <c r="B60" t="s">
@@ -2680,8 +3331,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="12">
         <v>44172.8125</v>
       </c>
       <c r="B61" t="s">
@@ -2691,8 +3342,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:3">
+      <c r="A62" s="12">
         <v>44173.3125</v>
       </c>
       <c r="B62" t="s">
@@ -2702,8 +3353,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+    <row r="63" spans="1:3">
+      <c r="A63" s="12">
         <v>44173.8125</v>
       </c>
       <c r="B63" t="s">
@@ -2713,8 +3364,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:3">
+      <c r="A64" s="12">
         <v>44188.8125</v>
       </c>
       <c r="B64" t="s">
@@ -2724,8 +3375,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:3">
+      <c r="A65" s="12">
         <v>44189.3125</v>
       </c>
       <c r="B65" t="s">
@@ -2735,8 +3386,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:3">
+      <c r="A66" s="12">
         <v>44189.8125</v>
       </c>
       <c r="B66" t="s">
@@ -2746,8 +3397,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:3">
+      <c r="A67" s="12">
         <v>44190.3125</v>
       </c>
       <c r="B67" t="s">
@@ -2757,8 +3408,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:3">
+      <c r="A68" s="12">
         <v>44190.8125</v>
       </c>
       <c r="B68" t="s">
@@ -2768,8 +3419,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:3">
+      <c r="A69" s="12">
         <v>44194.8125</v>
       </c>
       <c r="B69" t="s">
@@ -2779,8 +3430,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="70" spans="1:3">
+      <c r="A70" s="12">
         <v>44195.3125</v>
       </c>
       <c r="B70" t="s">
@@ -2790,8 +3441,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:3">
+      <c r="A71" s="12">
         <v>44195.8125</v>
       </c>
       <c r="B71" t="s">
@@ -2801,8 +3452,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="72" spans="1:3">
+      <c r="A72" s="12">
         <v>44196.3125</v>
       </c>
       <c r="B72" t="s">
@@ -2812,8 +3463,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="73" spans="1:3">
+      <c r="A73" s="12">
         <v>44196.8125</v>
       </c>
       <c r="B73" t="s">
@@ -2825,35 +3476,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3">
+      <c r="A2" s="12">
         <v>44197.3125</v>
       </c>
       <c r="B2" t="s">
@@ -2863,8 +3516,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="12">
         <v>44197.8125</v>
       </c>
       <c r="B3" t="s">
@@ -2874,8 +3527,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3">
+      <c r="A4" s="12">
         <v>44238.8125</v>
       </c>
       <c r="B4" t="s">
@@ -2885,8 +3538,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3">
+      <c r="A5" s="12">
         <v>44239.3125</v>
       </c>
       <c r="B5" t="s">
@@ -2896,8 +3549,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3">
+      <c r="A6" s="12">
         <v>44239.8125</v>
       </c>
       <c r="B6" t="s">
@@ -2907,8 +3560,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3">
+      <c r="A7" s="12">
         <v>44251.8125</v>
       </c>
       <c r="B7" t="s">
@@ -2918,8 +3571,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:3">
+      <c r="A8" s="12">
         <v>44252.3125</v>
       </c>
       <c r="B8" t="s">
@@ -2929,8 +3582,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:3">
+      <c r="A9" s="12">
         <v>44252.8125</v>
       </c>
       <c r="B9" t="s">
@@ -2940,8 +3593,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:3">
+      <c r="A10" s="12">
         <v>44286.8125</v>
       </c>
       <c r="B10" t="s">
@@ -2951,8 +3604,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:3">
+      <c r="A11" s="12">
         <v>44287.3125</v>
       </c>
       <c r="B11" t="s">
@@ -2962,8 +3615,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:3">
+      <c r="A12" s="12">
         <v>44287.8125</v>
       </c>
       <c r="B12" t="s">
@@ -2973,8 +3626,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+    <row r="13" spans="1:3">
+      <c r="A13" s="12">
         <v>44288.3125</v>
       </c>
       <c r="B13" t="s">
@@ -2984,19 +3637,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:3">
+      <c r="A14" s="12">
         <v>44288.8125</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:3">
+      <c r="A15" s="12">
         <v>44289.3125</v>
       </c>
       <c r="B15" t="s">
@@ -3006,8 +3659,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:3">
+      <c r="A16" s="12">
         <v>44289.8125</v>
       </c>
       <c r="B16" t="s">
@@ -3017,8 +3670,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:3">
+      <c r="A17" s="12">
         <v>44294.8125</v>
       </c>
       <c r="B17" t="s">
@@ -3028,19 +3681,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:3">
+      <c r="A18" s="12">
         <v>44295.3125</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12">
         <v>44295.8125</v>
       </c>
       <c r="B19" t="s">
@@ -3050,8 +3703,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:3">
+      <c r="A20" s="12">
         <v>44316.8125</v>
       </c>
       <c r="B20" t="s">
@@ -3061,8 +3714,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:3">
+      <c r="A21" s="12">
         <v>44317.3125</v>
       </c>
       <c r="B21" t="s">
@@ -3072,8 +3725,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:3">
+      <c r="A22" s="12">
         <v>44317.8125</v>
       </c>
       <c r="B22" t="s">
@@ -3083,8 +3736,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:3">
+      <c r="A23" s="12">
         <v>44358.8125</v>
       </c>
       <c r="B23" t="s">
@@ -3094,8 +3747,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:3">
+      <c r="A24" s="12">
         <v>44359.3125</v>
       </c>
       <c r="B24" t="s">
@@ -3105,8 +3758,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:3">
+      <c r="A25" s="12">
         <v>44359.8125</v>
       </c>
       <c r="B25" t="s">
@@ -3116,30 +3769,30 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:3">
+      <c r="A26" s="12">
         <v>44426.8125</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="C26" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12">
         <v>44427.3125</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:3">
+      <c r="A28" s="12">
         <v>44427.8125</v>
       </c>
       <c r="B28" t="s">
@@ -3149,8 +3802,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:3">
+      <c r="A29" s="12">
         <v>44428.8125</v>
       </c>
       <c r="B29" t="s">
@@ -3160,8 +3813,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:3">
+      <c r="A30" s="12">
         <v>44429.3125</v>
       </c>
       <c r="B30" t="s">
@@ -3171,41 +3824,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:3">
+      <c r="A31" s="12">
         <v>44429.8125</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="C31" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="12">
         <v>44437.8125</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="12">
         <v>44438.3125</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>71</v>
+      <c r="B33" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:3">
+      <c r="A34" s="12">
         <v>44438.8125</v>
       </c>
       <c r="B34" t="s">
@@ -3215,96 +3868,96 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:3">
+      <c r="A35" s="12">
         <v>44500.8125</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="15">
+        <v>44501.3125</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="15">
+        <v>44501.8125</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="A38" s="15">
+        <v>44502.3125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="15">
+        <v>44502.8125</v>
+      </c>
+      <c r="B39" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>44501.3125</v>
-      </c>
-      <c r="B36" s="12" t="s">
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="15">
+        <v>44529.8125</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="15">
+        <v>44530.3125</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>44501.8125</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>44502.3125</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>44502.8125</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>44529.8125</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>44530.3125</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="15">
         <v>44530.8125</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="12">
         <v>44537.8125</v>
       </c>
       <c r="B43" t="s">
@@ -3314,30 +3967,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:3">
+      <c r="A44" s="12">
         <v>44538.3125</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:3">
+      <c r="A45" s="12">
         <v>44538.8125</v>
       </c>
       <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="12">
         <v>44553.8125</v>
       </c>
       <c r="B46" t="s">
@@ -3347,30 +4000,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:3">
+      <c r="A47" s="12">
         <v>44554.3125</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="C47" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="12">
         <v>44554.8125</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:3">
+      <c r="A49" s="12">
         <v>44555.3125</v>
       </c>
       <c r="B49" t="s">
@@ -3380,8 +4033,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:3">
+      <c r="A50" s="12">
         <v>44555.8125</v>
       </c>
       <c r="B50" t="s">
@@ -3391,8 +4044,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:3">
+      <c r="A51" s="12">
         <v>44559.8125</v>
       </c>
       <c r="B51" t="s">
@@ -3402,19 +4055,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:3">
+      <c r="A52" s="12">
         <v>44560.3125</v>
       </c>
       <c r="B52" t="s">
         <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="12">
         <v>44560.8125</v>
       </c>
       <c r="B53" t="s">
@@ -3424,19 +4077,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:3">
+      <c r="A54" s="12">
         <v>44561.3125</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:3">
+      <c r="A55" s="12">
         <v>44561.8125</v>
       </c>
       <c r="B55" t="s">
@@ -3448,656 +4101,729 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2CE534-2D30-49B3-8CB6-D744CFA431A5}">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:4">
+      <c r="A12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" ht="15.75" spans="1:4">
+      <c r="A16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" ht="15.75" spans="1:4">
+      <c r="A17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:4">
+      <c r="A18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:4">
+      <c r="A19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:4">
+      <c r="A21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" ht="15.75" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" ht="15.75" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" ht="15.75" spans="1:4">
+      <c r="A26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" ht="15.75" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" spans="1:3">
+      <c r="A32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A47" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="B47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A48" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="C49" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="C58" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="C59" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="185">
   <si>
     <t>ts</t>
   </si>
@@ -353,6 +353,30 @@
     <t>2022-05-01 19:30:00</t>
   </si>
   <si>
+    <t>2022-05-05 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-07 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-09 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-13 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-14 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-15 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-20 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-05-25 07:30:00</t>
+  </si>
+  <si>
     <t>2022-06-11 19:30:00</t>
   </si>
   <si>
@@ -362,21 +386,60 @@
     <t>2022-06-12 19:30:00</t>
   </si>
   <si>
+    <t>2022-07-05 7:30:00</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>2022-07-21 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-02 7:30:00</t>
+  </si>
+  <si>
+    <t>Jel</t>
+  </si>
+  <si>
+    <t>2022-08-06 7:30:00</t>
+  </si>
+  <si>
+    <t>Phin</t>
+  </si>
+  <si>
+    <t>2022-08-10 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-10 19:30:00</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>2022-08-11 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-13 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-15 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-08-16 7:30:00</t>
+  </si>
+  <si>
     <t>2022-08-18 19:30:00</t>
   </si>
   <si>
+    <t>2022-08-23 7:30:00</t>
+  </si>
+  <si>
     <t>2022-08-19 7:30:00</t>
   </si>
   <si>
-    <t>New9</t>
-  </si>
-  <si>
     <t>2022-08-19 19:30:00</t>
   </si>
   <si>
-    <t>New7</t>
-  </si>
-  <si>
     <t>2022-08-20 19:30:00</t>
   </si>
   <si>
@@ -395,6 +458,45 @@
     <t>2022-08-29 19:30:00</t>
   </si>
   <si>
+    <t>2022-09-01 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-08 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-13 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-15 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-16 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-21 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-27 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-09-29 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-10-04 07:30:00</t>
+  </si>
+  <si>
+    <t>Aya</t>
+  </si>
+  <si>
+    <t>2022-10-06 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-10-13 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-10-25 07:30:00</t>
+  </si>
+  <si>
     <t>2022-10-31 19:30:00</t>
   </si>
   <si>
@@ -410,6 +512,21 @@
     <t>2022-11-02 19:30:00</t>
   </si>
   <si>
+    <t>2022-11-08 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-16 19:30:00</t>
+  </si>
+  <si>
+    <t>Sander</t>
+  </si>
+  <si>
+    <t>2022-11-22 07:30:00</t>
+  </si>
+  <si>
+    <t>2022-11-24 07:30:00</t>
+  </si>
+  <si>
     <t>2022-11-29 19:30:00</t>
   </si>
   <si>
@@ -417,9 +534,6 @@
   </si>
   <si>
     <t>2022-11-30 19:30:00</t>
-  </si>
-  <si>
-    <t>New8</t>
   </si>
   <si>
     <t>2022-12-07 19:30:00</t>
@@ -466,17 +580,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,13 +644,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -529,18 +651,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,17 +687,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,14 +699,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,19 +717,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,7 +741,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -638,15 +757,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,20 +772,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,8 +785,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +823,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,61 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,13 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,31 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,19 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +1047,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -951,6 +1086,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -962,41 +1106,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,10 +1133,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,167 +1165,173 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,24 +1690,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12">
+      <c r="A2" s="18">
         <v>43466.3125</v>
       </c>
       <c r="B2" t="b">
@@ -1598,7 +1724,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>43466.8125</v>
       </c>
       <c r="B3" t="b">
@@ -1615,7 +1741,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>43563.8125</v>
       </c>
       <c r="B4" t="b">
@@ -1632,7 +1758,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>43564.3125</v>
       </c>
       <c r="B5" t="b">
@@ -1649,7 +1775,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>43564.8125</v>
       </c>
       <c r="B6" t="b">
@@ -1666,7 +1792,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12">
+      <c r="A7" s="18">
         <v>43572.8125</v>
       </c>
       <c r="B7" t="b">
@@ -1683,7 +1809,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12">
+      <c r="A8" s="18">
         <v>43573.3125</v>
       </c>
       <c r="B8" t="b">
@@ -1700,7 +1826,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="A9" s="18">
         <v>43573.8125</v>
       </c>
       <c r="B9" t="b">
@@ -1717,7 +1843,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>43573.8125</v>
       </c>
       <c r="B10" t="b">
@@ -1734,7 +1860,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12">
+      <c r="A11" s="18">
         <v>43574.3125</v>
       </c>
       <c r="B11" t="b">
@@ -1751,7 +1877,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="18">
         <v>43574.8125</v>
       </c>
       <c r="B12" t="b">
@@ -1768,7 +1894,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="18">
         <v>43585.8125</v>
       </c>
       <c r="B13" t="b">
@@ -1785,7 +1911,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12">
+      <c r="A14" s="18">
         <v>43586.3125</v>
       </c>
       <c r="B14" t="b">
@@ -1802,7 +1928,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="18">
         <v>43586.8125</v>
       </c>
       <c r="B15" t="b">
@@ -1819,7 +1945,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12">
+      <c r="A16" s="18">
         <v>43627.8125</v>
       </c>
       <c r="B16" t="b">
@@ -1836,7 +1962,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12">
+      <c r="A17" s="18">
         <v>43628.3125</v>
       </c>
       <c r="B17" t="b">
@@ -1853,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
+      <c r="A18" s="18">
         <v>43628.8125</v>
       </c>
       <c r="B18" t="b">
@@ -1870,7 +1996,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12">
+      <c r="A19" s="18">
         <v>43702.8125</v>
       </c>
       <c r="B19" t="b">
@@ -1887,7 +2013,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12">
+      <c r="A20" s="18">
         <v>43703.3125</v>
       </c>
       <c r="B20" t="b">
@@ -1904,7 +2030,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="18">
         <v>43703.8125</v>
       </c>
       <c r="B21" t="b">
@@ -1921,7 +2047,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12">
+      <c r="A22" s="18">
         <v>43798.8125</v>
       </c>
       <c r="B22" t="b">
@@ -1938,7 +2064,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12">
+      <c r="A23" s="18">
         <v>43799.3125</v>
       </c>
       <c r="B23" t="b">
@@ -1955,7 +2081,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12">
+      <c r="A24" s="18">
         <v>43799.8125</v>
       </c>
       <c r="B24" t="b">
@@ -1972,7 +2098,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12">
+      <c r="A25" s="18">
         <v>43823.8125</v>
       </c>
       <c r="B25" t="b">
@@ -1989,7 +2115,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12">
+      <c r="A26" s="18">
         <v>43824.3125</v>
       </c>
       <c r="B26" t="b">
@@ -2006,7 +2132,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12">
+      <c r="A27" s="18">
         <v>43824.8125</v>
       </c>
       <c r="B27" t="b">
@@ -2023,7 +2149,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12">
+      <c r="A28" s="18">
         <v>43828.8125</v>
       </c>
       <c r="B28" t="b">
@@ -2040,7 +2166,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12">
+      <c r="A29" s="18">
         <v>43829.3125</v>
       </c>
       <c r="B29" t="b">
@@ -2057,7 +2183,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12">
+      <c r="A30" s="18">
         <v>43829.8125</v>
       </c>
       <c r="B30" t="b">
@@ -2091,24 +2217,24 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="12">
+      <c r="A2" s="18">
         <v>43221.3125</v>
       </c>
       <c r="B2" t="b">
@@ -2125,7 +2251,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>43221.8125</v>
       </c>
       <c r="B3" t="b">
@@ -2142,7 +2268,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>43262.8125</v>
       </c>
       <c r="B4" t="b">
@@ -2159,7 +2285,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>43263.3125</v>
       </c>
       <c r="B5" t="b">
@@ -2176,7 +2302,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>43263.8125</v>
       </c>
       <c r="B6" t="b">
@@ -2193,7 +2319,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="12">
+      <c r="A7" s="18">
         <v>43330.8125</v>
       </c>
       <c r="B7" t="b">
@@ -2210,7 +2336,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12">
+      <c r="A8" s="18">
         <v>43331.3125</v>
       </c>
       <c r="B8" t="b">
@@ -2227,7 +2353,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="A9" s="18">
         <v>43331.8125</v>
       </c>
       <c r="B9" t="b">
@@ -2244,7 +2370,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>43332.8125</v>
       </c>
       <c r="B10" t="b">
@@ -2261,7 +2387,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12">
+      <c r="A11" s="18">
         <v>43333.3125</v>
       </c>
       <c r="B11" t="b">
@@ -2278,7 +2404,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="A12" s="18">
         <v>43333.8125</v>
       </c>
       <c r="B12" t="b">
@@ -2295,7 +2421,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12">
+      <c r="A13" s="18">
         <v>43338.8125</v>
       </c>
       <c r="B13" t="b">
@@ -2312,7 +2438,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12">
+      <c r="A14" s="18">
         <v>43339.3125</v>
       </c>
       <c r="B14" t="b">
@@ -2329,7 +2455,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="18">
         <v>43339.8125</v>
       </c>
       <c r="B15" t="b">
@@ -2346,7 +2472,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12">
+      <c r="A16" s="18">
         <v>43404.8125</v>
       </c>
       <c r="B16" t="b">
@@ -2363,7 +2489,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12">
+      <c r="A17" s="18">
         <v>43405.3125</v>
       </c>
       <c r="B17" t="b">
@@ -2380,7 +2506,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12">
+      <c r="A18" s="18">
         <v>43405.8125</v>
       </c>
       <c r="B18" t="b">
@@ -2397,7 +2523,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12">
+      <c r="A19" s="18">
         <v>43406.3125</v>
       </c>
       <c r="B19" t="b">
@@ -2414,7 +2540,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12">
+      <c r="A20" s="18">
         <v>43406.8125</v>
       </c>
       <c r="B20" t="b">
@@ -2431,7 +2557,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12">
+      <c r="A21" s="18">
         <v>43433.8125</v>
       </c>
       <c r="B21" t="b">
@@ -2448,7 +2574,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12">
+      <c r="A22" s="18">
         <v>43434.3125</v>
       </c>
       <c r="B22" t="b">
@@ -2465,7 +2591,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12">
+      <c r="A23" s="18">
         <v>43434.8125</v>
       </c>
       <c r="B23" t="b">
@@ -2482,7 +2608,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12">
+      <c r="A24" s="18">
         <v>43457.8125</v>
       </c>
       <c r="B24" t="b">
@@ -2499,7 +2625,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12">
+      <c r="A25" s="18">
         <v>43458.3125</v>
       </c>
       <c r="B25" t="b">
@@ -2516,7 +2642,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12">
+      <c r="A26" s="18">
         <v>43458.8125</v>
       </c>
       <c r="B26" t="b">
@@ -2533,7 +2659,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12">
+      <c r="A27" s="18">
         <v>43459.3125</v>
       </c>
       <c r="B27" t="b">
@@ -2550,7 +2676,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12">
+      <c r="A28" s="18">
         <v>43459.8125</v>
       </c>
       <c r="B28" t="b">
@@ -2567,7 +2693,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12">
+      <c r="A29" s="18">
         <v>43463.8125</v>
       </c>
       <c r="B29" t="b">
@@ -2584,7 +2710,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12">
+      <c r="A30" s="18">
         <v>43464.3125</v>
       </c>
       <c r="B30" t="b">
@@ -2601,7 +2727,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12">
+      <c r="A31" s="18">
         <v>43464.8125</v>
       </c>
       <c r="B31" t="b">
@@ -2618,7 +2744,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12">
+      <c r="A32" s="18">
         <v>43465.3125</v>
       </c>
       <c r="B32" t="b">
@@ -2635,7 +2761,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12">
+      <c r="A33" s="18">
         <v>43465.8125</v>
       </c>
       <c r="B33" t="b">
@@ -2672,18 +2798,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="18">
         <v>43831.3125</v>
       </c>
       <c r="B2" t="s">
@@ -2694,7 +2820,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>43831.8125</v>
       </c>
       <c r="B3" t="s">
@@ -2705,7 +2831,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>43854.8125</v>
       </c>
       <c r="B4" t="s">
@@ -2716,7 +2842,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>43855.3125</v>
       </c>
       <c r="B5" t="s">
@@ -2727,7 +2853,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>43855.8125</v>
       </c>
       <c r="B6" t="s">
@@ -2738,7 +2864,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12">
+      <c r="A7" s="18">
         <v>43885.8125</v>
       </c>
       <c r="B7" t="s">
@@ -2749,7 +2875,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12">
+      <c r="A8" s="18">
         <v>43886.3125</v>
       </c>
       <c r="B8" t="s">
@@ -2760,7 +2886,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12">
+      <c r="A9" s="18">
         <v>43886.8125</v>
       </c>
       <c r="B9" t="s">
@@ -2771,7 +2897,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>43929.8125</v>
       </c>
       <c r="B10" t="s">
@@ -2782,7 +2908,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12">
+      <c r="A11" s="18">
         <v>43930.3125</v>
       </c>
       <c r="B11" t="s">
@@ -2793,7 +2919,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12">
+      <c r="A12" s="18">
         <v>43930.8125</v>
       </c>
       <c r="B12" t="s">
@@ -2804,7 +2930,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12">
+      <c r="A13" s="18">
         <v>43931.3125</v>
       </c>
       <c r="B13" t="s">
@@ -2815,7 +2941,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12">
+      <c r="A14" s="18">
         <v>43931.8125</v>
       </c>
       <c r="B14" t="s">
@@ -2826,7 +2952,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12">
+      <c r="A15" s="18">
         <v>43932.3125</v>
       </c>
       <c r="B15" t="s">
@@ -2837,7 +2963,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="18">
         <v>43932.8125</v>
       </c>
       <c r="B16" t="s">
@@ -2848,7 +2974,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12">
+      <c r="A17" s="18">
         <v>43951.8125</v>
       </c>
       <c r="B17" t="s">
@@ -2859,7 +2985,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12">
+      <c r="A18" s="18">
         <v>43952.3125</v>
       </c>
       <c r="B18" t="s">
@@ -2870,7 +2996,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12">
+      <c r="A19" s="18">
         <v>43952.8125</v>
       </c>
       <c r="B19" t="s">
@@ -2881,7 +3007,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12">
+      <c r="A20" s="18">
         <v>43983.3125</v>
       </c>
       <c r="B20" t="s">
@@ -2892,7 +3018,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12">
+      <c r="A21" s="18">
         <v>43983.8125</v>
       </c>
       <c r="B21" t="s">
@@ -2903,7 +3029,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12">
+      <c r="A22" s="18">
         <v>43984.3125</v>
       </c>
       <c r="B22" t="s">
@@ -2914,7 +3040,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12">
+      <c r="A23" s="18">
         <v>43984.8125</v>
       </c>
       <c r="B23" t="s">
@@ -2925,7 +3051,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="12">
+      <c r="A24" s="18">
         <v>43985.3125</v>
       </c>
       <c r="B24" t="s">
@@ -2936,7 +3062,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12">
+      <c r="A25" s="18">
         <v>43985.8125</v>
       </c>
       <c r="B25" t="s">
@@ -2947,7 +3073,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12">
+      <c r="A26" s="18">
         <v>43986.3125</v>
       </c>
       <c r="B26" t="s">
@@ -2958,7 +3084,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12">
+      <c r="A27" s="18">
         <v>43986.8125</v>
       </c>
       <c r="B27" t="s">
@@ -2969,7 +3095,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12">
+      <c r="A28" s="18">
         <v>43987.3125</v>
       </c>
       <c r="B28" t="s">
@@ -2980,7 +3106,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="12">
+      <c r="A29" s="18">
         <v>43987.8125</v>
       </c>
       <c r="B29" t="s">
@@ -2991,7 +3117,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12">
+      <c r="A30" s="18">
         <v>43988.3125</v>
       </c>
       <c r="B30" t="s">
@@ -3002,7 +3128,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12">
+      <c r="A31" s="18">
         <v>43988.8125</v>
       </c>
       <c r="B31" t="s">
@@ -3013,7 +3139,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12">
+      <c r="A32" s="18">
         <v>43989.3125</v>
       </c>
       <c r="B32" t="s">
@@ -3024,7 +3150,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12">
+      <c r="A33" s="18">
         <v>43989.8125</v>
       </c>
       <c r="B33" t="s">
@@ -3035,7 +3161,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12">
+      <c r="A34" s="18">
         <v>43990.3125</v>
       </c>
       <c r="B34" t="s">
@@ -3046,7 +3172,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12">
+      <c r="A35" s="18">
         <v>43990.8125</v>
       </c>
       <c r="B35" t="s">
@@ -3057,7 +3183,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="12">
+      <c r="A36" s="18">
         <v>43991.3125</v>
       </c>
       <c r="B36" t="s">
@@ -3068,7 +3194,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="12">
+      <c r="A37" s="18">
         <v>43991.8125</v>
       </c>
       <c r="B37" t="s">
@@ -3079,7 +3205,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="12">
+      <c r="A38" s="18">
         <v>43992.3125</v>
       </c>
       <c r="B38" t="s">
@@ -3090,7 +3216,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="12">
+      <c r="A39" s="18">
         <v>43992.8125</v>
       </c>
       <c r="B39" t="s">
@@ -3101,7 +3227,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="12">
+      <c r="A40" s="18">
         <v>43993.3125</v>
       </c>
       <c r="B40" t="s">
@@ -3112,7 +3238,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="12">
+      <c r="A41" s="18">
         <v>43993.8125</v>
       </c>
       <c r="B41" t="s">
@@ -3123,7 +3249,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="12">
+      <c r="A42" s="18">
         <v>43994.3125</v>
       </c>
       <c r="B42" t="s">
@@ -3134,7 +3260,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12">
+      <c r="A43" s="18">
         <v>43994.8125</v>
       </c>
       <c r="B43" t="s">
@@ -3145,7 +3271,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12">
+      <c r="A44" s="18">
         <v>44061.8125</v>
       </c>
       <c r="B44" t="s">
@@ -3156,7 +3282,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="12">
+      <c r="A45" s="18">
         <v>44062.3125</v>
       </c>
       <c r="B45" t="s">
@@ -3167,7 +3293,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="12">
+      <c r="A46" s="18">
         <v>44062.8125</v>
       </c>
       <c r="B46" t="s">
@@ -3178,7 +3304,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="12">
+      <c r="A47" s="18">
         <v>44063.8125</v>
       </c>
       <c r="B47" t="s">
@@ -3189,7 +3315,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="12">
+      <c r="A48" s="18">
         <v>44064.3125</v>
       </c>
       <c r="B48" t="s">
@@ -3200,7 +3326,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="12">
+      <c r="A49" s="18">
         <v>44064.8125</v>
       </c>
       <c r="B49" t="s">
@@ -3211,7 +3337,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="12">
+      <c r="A50" s="18">
         <v>44073.8125</v>
       </c>
       <c r="B50" t="s">
@@ -3222,7 +3348,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="12">
+      <c r="A51" s="18">
         <v>44074.3125</v>
       </c>
       <c r="B51" t="s">
@@ -3233,7 +3359,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="12">
+      <c r="A52" s="18">
         <v>44074.8125</v>
       </c>
       <c r="B52" t="s">
@@ -3244,7 +3370,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="12">
+      <c r="A53" s="18">
         <v>44135.8125</v>
       </c>
       <c r="B53" t="s">
@@ -3255,7 +3381,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="12">
+      <c r="A54" s="18">
         <v>44136.3125</v>
       </c>
       <c r="B54" t="s">
@@ -3266,7 +3392,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12">
+      <c r="A55" s="18">
         <v>44136.8125</v>
       </c>
       <c r="B55" t="s">
@@ -3277,7 +3403,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="12">
+      <c r="A56" s="18">
         <v>44137.3125</v>
       </c>
       <c r="B56" t="s">
@@ -3288,7 +3414,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="12">
+      <c r="A57" s="18">
         <v>44137.8125</v>
       </c>
       <c r="B57" t="s">
@@ -3299,7 +3425,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="12">
+      <c r="A58" s="18">
         <v>44164.8125</v>
       </c>
       <c r="B58" t="s">
@@ -3310,7 +3436,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="12">
+      <c r="A59" s="18">
         <v>44165.3125</v>
       </c>
       <c r="B59" t="s">
@@ -3321,7 +3447,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="12">
+      <c r="A60" s="18">
         <v>44165.8125</v>
       </c>
       <c r="B60" t="s">
@@ -3332,7 +3458,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="12">
+      <c r="A61" s="18">
         <v>44172.8125</v>
       </c>
       <c r="B61" t="s">
@@ -3343,7 +3469,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="12">
+      <c r="A62" s="18">
         <v>44173.3125</v>
       </c>
       <c r="B62" t="s">
@@ -3354,7 +3480,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="12">
+      <c r="A63" s="18">
         <v>44173.8125</v>
       </c>
       <c r="B63" t="s">
@@ -3365,7 +3491,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="12">
+      <c r="A64" s="18">
         <v>44188.8125</v>
       </c>
       <c r="B64" t="s">
@@ -3376,7 +3502,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="12">
+      <c r="A65" s="18">
         <v>44189.3125</v>
       </c>
       <c r="B65" t="s">
@@ -3387,7 +3513,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="12">
+      <c r="A66" s="18">
         <v>44189.8125</v>
       </c>
       <c r="B66" t="s">
@@ -3398,7 +3524,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="12">
+      <c r="A67" s="18">
         <v>44190.3125</v>
       </c>
       <c r="B67" t="s">
@@ -3409,7 +3535,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="12">
+      <c r="A68" s="18">
         <v>44190.8125</v>
       </c>
       <c r="B68" t="s">
@@ -3420,7 +3546,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="12">
+      <c r="A69" s="18">
         <v>44194.8125</v>
       </c>
       <c r="B69" t="s">
@@ -3431,7 +3557,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="12">
+      <c r="A70" s="18">
         <v>44195.3125</v>
       </c>
       <c r="B70" t="s">
@@ -3442,7 +3568,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="12">
+      <c r="A71" s="18">
         <v>44195.8125</v>
       </c>
       <c r="B71" t="s">
@@ -3453,7 +3579,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="12">
+      <c r="A72" s="18">
         <v>44196.3125</v>
       </c>
       <c r="B72" t="s">
@@ -3464,7 +3590,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="12">
+      <c r="A73" s="18">
         <v>44196.8125</v>
       </c>
       <c r="B73" t="s">
@@ -3495,18 +3621,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12">
+      <c r="A2" s="18">
         <v>44197.3125</v>
       </c>
       <c r="B2" t="s">
@@ -3517,7 +3643,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="18">
         <v>44197.8125</v>
       </c>
       <c r="B3" t="s">
@@ -3528,7 +3654,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="18">
         <v>44238.8125</v>
       </c>
       <c r="B4" t="s">
@@ -3539,7 +3665,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="18">
         <v>44239.3125</v>
       </c>
       <c r="B5" t="s">
@@ -3550,7 +3676,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="18">
         <v>44239.8125</v>
       </c>
       <c r="B6" t="s">
@@ -3561,7 +3687,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12">
+      <c r="A7" s="18">
         <v>44251.8125</v>
       </c>
       <c r="B7" t="s">
@@ -3572,7 +3698,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12">
+      <c r="A8" s="18">
         <v>44252.3125</v>
       </c>
       <c r="B8" t="s">
@@ -3583,7 +3709,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12">
+      <c r="A9" s="18">
         <v>44252.8125</v>
       </c>
       <c r="B9" t="s">
@@ -3594,7 +3720,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12">
+      <c r="A10" s="18">
         <v>44286.8125</v>
       </c>
       <c r="B10" t="s">
@@ -3605,7 +3731,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12">
+      <c r="A11" s="18">
         <v>44287.3125</v>
       </c>
       <c r="B11" t="s">
@@ -3616,7 +3742,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12">
+      <c r="A12" s="18">
         <v>44287.8125</v>
       </c>
       <c r="B12" t="s">
@@ -3627,7 +3753,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12">
+      <c r="A13" s="18">
         <v>44288.3125</v>
       </c>
       <c r="B13" t="s">
@@ -3638,7 +3764,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12">
+      <c r="A14" s="18">
         <v>44288.8125</v>
       </c>
       <c r="B14" t="s">
@@ -3649,7 +3775,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12">
+      <c r="A15" s="18">
         <v>44289.3125</v>
       </c>
       <c r="B15" t="s">
@@ -3660,7 +3786,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="18">
         <v>44289.8125</v>
       </c>
       <c r="B16" t="s">
@@ -3671,7 +3797,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12">
+      <c r="A17" s="18">
         <v>44294.8125</v>
       </c>
       <c r="B17" t="s">
@@ -3682,7 +3808,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12">
+      <c r="A18" s="18">
         <v>44295.3125</v>
       </c>
       <c r="B18" t="s">
@@ -3693,7 +3819,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12">
+      <c r="A19" s="18">
         <v>44295.8125</v>
       </c>
       <c r="B19" t="s">
@@ -3704,7 +3830,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12">
+      <c r="A20" s="18">
         <v>44316.8125</v>
       </c>
       <c r="B20" t="s">
@@ -3715,7 +3841,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12">
+      <c r="A21" s="18">
         <v>44317.3125</v>
       </c>
       <c r="B21" t="s">
@@ -3726,7 +3852,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12">
+      <c r="A22" s="18">
         <v>44317.8125</v>
       </c>
       <c r="B22" t="s">
@@ -3737,7 +3863,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12">
+      <c r="A23" s="18">
         <v>44358.8125</v>
       </c>
       <c r="B23" t="s">
@@ -3748,7 +3874,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="12">
+      <c r="A24" s="18">
         <v>44359.3125</v>
       </c>
       <c r="B24" t="s">
@@ -3759,7 +3885,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12">
+      <c r="A25" s="18">
         <v>44359.8125</v>
       </c>
       <c r="B25" t="s">
@@ -3770,21 +3896,21 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12">
+      <c r="A26" s="18">
         <v>44426.8125</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12">
+      <c r="A27" s="18">
         <v>44427.3125</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C27" t="s">
@@ -3792,7 +3918,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12">
+      <c r="A28" s="18">
         <v>44427.8125</v>
       </c>
       <c r="B28" t="s">
@@ -3803,7 +3929,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="12">
+      <c r="A29" s="18">
         <v>44428.8125</v>
       </c>
       <c r="B29" t="s">
@@ -3814,7 +3940,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="12">
+      <c r="A30" s="18">
         <v>44429.3125</v>
       </c>
       <c r="B30" t="s">
@@ -3825,18 +3951,18 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="12">
+      <c r="A31" s="18">
         <v>44429.8125</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="12">
+      <c r="A32" s="18">
         <v>44437.8125</v>
       </c>
       <c r="B32" t="s">
@@ -3847,10 +3973,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="12">
+      <c r="A33" s="18">
         <v>44438.3125</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="19" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
@@ -3858,7 +3984,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="12">
+      <c r="A34" s="18">
         <v>44438.8125</v>
       </c>
       <c r="B34" t="s">
@@ -3869,95 +3995,95 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12">
+      <c r="A35" s="18">
         <v>44500.8125</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="15">
+    <row r="36" s="3" customFormat="1" spans="1:3">
+      <c r="A36" s="20">
         <v>44501.3125</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
-      <c r="A37" s="15">
+    <row r="37" s="3" customFormat="1" spans="1:3">
+      <c r="A37" s="20">
         <v>44501.8125</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
-      <c r="A38" s="15">
+    <row r="38" s="3" customFormat="1" spans="1:3">
+      <c r="A38" s="20">
         <v>44502.3125</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="15">
+    <row r="39" s="3" customFormat="1" spans="1:3">
+      <c r="A39" s="20">
         <v>44502.8125</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
-      <c r="A40" s="15">
+    <row r="40" s="3" customFormat="1" spans="1:3">
+      <c r="A40" s="20">
         <v>44529.8125</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="15">
+    <row r="41" s="3" customFormat="1" spans="1:3">
+      <c r="A41" s="20">
         <v>44530.3125</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="15">
+    <row r="42" s="3" customFormat="1" spans="1:3">
+      <c r="A42" s="20">
         <v>44530.8125</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12">
+      <c r="A43" s="18">
         <v>44537.8125</v>
       </c>
       <c r="B43" t="s">
@@ -3968,29 +4094,29 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="12">
+      <c r="A44" s="18">
         <v>44538.3125</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="12">
+      <c r="A45" s="18">
         <v>44538.8125</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="12">
+      <c r="A46" s="18">
         <v>44553.8125</v>
       </c>
       <c r="B46" t="s">
@@ -4001,29 +4127,29 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="12">
+      <c r="A47" s="18">
         <v>44554.3125</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="12">
+      <c r="A48" s="18">
         <v>44554.8125</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="12">
+      <c r="A49" s="18">
         <v>44555.3125</v>
       </c>
       <c r="B49" t="s">
@@ -4034,7 +4160,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="12">
+      <c r="A50" s="18">
         <v>44555.8125</v>
       </c>
       <c r="B50" t="s">
@@ -4045,7 +4171,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="12">
+      <c r="A51" s="18">
         <v>44559.8125</v>
       </c>
       <c r="B51" t="s">
@@ -4056,7 +4182,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="12">
+      <c r="A52" s="18">
         <v>44560.3125</v>
       </c>
       <c r="B52" t="s">
@@ -4067,7 +4193,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="12">
+      <c r="A53" s="18">
         <v>44560.8125</v>
       </c>
       <c r="B53" t="s">
@@ -4078,18 +4204,18 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="12">
+      <c r="A54" s="18">
         <v>44561.3125</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="12">
+      <c r="A55" s="18">
         <v>44561.8125</v>
       </c>
       <c r="B55" t="s">
@@ -4109,717 +4235,1121 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.1428571428571" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="15.75" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="15.75" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" ht="15.75" spans="1:4">
+      <c r="A5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" ht="15.75" spans="1:4">
+      <c r="A6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" ht="15.75" spans="1:4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" ht="15.75" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" ht="15.75" spans="1:4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" ht="15.75" spans="1:4">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" ht="15.75" spans="1:4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" ht="15.75" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" ht="15.75" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" ht="15.75" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" ht="15.75" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15.75" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="38" ht="15.75" spans="1:3">
+      <c r="A38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="39" ht="15.75" spans="1:3">
+      <c r="A39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A40" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A41" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A42" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A43" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A44" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A45" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A46" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A48" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A49" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A50" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A51" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" spans="1:3">
+      <c r="A52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="C52" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" spans="1:3">
+      <c r="A53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="C53" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" spans="1:3">
+      <c r="A54" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C54" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" spans="1:3">
+      <c r="A55" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="56" ht="15.75" spans="1:3">
+      <c r="A56" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="C56" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" spans="1:3">
+      <c r="A57" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    <row r="58" ht="15.75" spans="1:3">
+      <c r="A58" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+    <row r="59" ht="15.75" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A61" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A62" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A63" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A64" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A65" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A66" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A67" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A68" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A69" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A70" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A71" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A72" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A74" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="6" t="s">
+    </row>
+    <row r="75" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A76" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A78" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="C78" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A79" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    </row>
+    <row r="80" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A80" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A81" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C82" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A84" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:3">
+      <c r="A86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" spans="1:3">
+      <c r="A87" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" spans="1:3">
+      <c r="A88" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A44" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A45" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A47" s="5" t="s">
+    <row r="92" ht="15.75" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" spans="1:3">
+      <c r="A95" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" spans="1:3">
-      <c r="A57" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="C95" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    <row r="96" ht="15.75" spans="1:3">
+      <c r="A96" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="6" t="s">
+    <row r="97" ht="15.75" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+    <row r="98" spans="2:3">
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -580,10 +580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -665,7 +665,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,13 +724,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -694,31 +732,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,30 +785,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,15 +802,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +877,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +895,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,133 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1043,36 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,38 +1119,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,8 +1128,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,7 +1147,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,127 +1168,127 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4238,7 +4238,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5248,7 +5248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="15.75" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>176</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>57</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="1:3">

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="4"/>
+    <workbookView windowWidth="13725" windowHeight="12225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="193">
   <si>
     <t>ts</t>
   </si>
@@ -573,6 +573,30 @@
   </si>
   <si>
     <t>2022-12-31 19:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-05 7:30:00</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>2022-12-06 7:30:00</t>
+  </si>
+  <si>
+    <t>Katey</t>
+  </si>
+  <si>
+    <t>2022-12-07 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-12 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-14 7:30:00</t>
+  </si>
+  <si>
+    <t>2022-12-15 7:30:00</t>
   </si>
 </sst>
 </file>
@@ -580,11 +604,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="30">
@@ -665,7 +689,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +703,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,9 +724,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,44 +758,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,22 +810,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -794,15 +818,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,25 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,55 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,79 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +901,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,17 +1071,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,6 +1095,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1088,15 +1139,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,24 +1160,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1147,7 +1171,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,130 +1189,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4235,10 +4259,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5248,18 +5272,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" ht="15.75" spans="1:3">
+    <row r="89" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" ht="15.75" spans="1:3">
       <c r="A90" s="7" t="s">
         <v>177</v>
       </c>
@@ -5336,20 +5360,82 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" ht="15.75" spans="1:3">
+    <row r="97" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12225" activeTab="4"/>
+    <workbookView windowWidth="24225" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -689,7 +689,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,70 +710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,6 +730,37 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,14 +788,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -826,7 +796,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,67 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,43 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +883,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +919,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,31 +1015,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,11 +1071,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,6 +1097,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,47 +1152,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,7 +1171,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,130 +1189,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5272,7 +5272,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="15.75" spans="1:3">
       <c r="A89" s="7" t="s">
         <v>176</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" ht="15.75" spans="1:3">
       <c r="A97" s="7" t="s">
         <v>184</v>
       </c>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -3,8 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -12,13 +13,14 @@
     <sheet name="2020" sheetId="3" r:id="rId3"/>
     <sheet name="2021" sheetId="4" r:id="rId4"/>
     <sheet name="2022" sheetId="5" r:id="rId5"/>
+    <sheet name="2023" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="198">
   <si>
     <t>ts</t>
   </si>
@@ -597,45 +599,36 @@
   </si>
   <si>
     <t>2022-12-15 7:30:00</t>
+  </si>
+  <si>
+    <t>newbie3</t>
+  </si>
+  <si>
+    <t>newbie4</t>
+  </si>
+  <si>
+    <t>newbie1</t>
+  </si>
+  <si>
+    <t>newbie5</t>
+  </si>
+  <si>
+    <t>newbie2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="22">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -647,57 +640,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,28 +654,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,15 +674,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,8 +743,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,6 +772,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -816,23 +793,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,13 +803,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,25 +851,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,31 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +899,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +923,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,25 +953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,13 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,12 +983,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1056,17 +1012,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,21 +1048,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1134,6 +1086,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1148,214 +1109,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1705,33 +1612,30 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18.1428571428571" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
+      <c r="A2" s="2">
         <v>43466.3125</v>
       </c>
       <c r="B2" t="b">
@@ -1748,7 +1652,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18">
+      <c r="A3" s="2">
         <v>43466.8125</v>
       </c>
       <c r="B3" t="b">
@@ -1765,7 +1669,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="2">
         <v>43563.8125</v>
       </c>
       <c r="B4" t="b">
@@ -1782,7 +1686,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18">
+      <c r="A5" s="2">
         <v>43564.3125</v>
       </c>
       <c r="B5" t="b">
@@ -1799,7 +1703,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="2">
         <v>43564.8125</v>
       </c>
       <c r="B6" t="b">
@@ -1816,7 +1720,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="2">
         <v>43572.8125</v>
       </c>
       <c r="B7" t="b">
@@ -1833,7 +1737,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="2">
         <v>43573.3125</v>
       </c>
       <c r="B8" t="b">
@@ -1850,7 +1754,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="2">
         <v>43573.8125</v>
       </c>
       <c r="B9" t="b">
@@ -1867,7 +1771,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18">
+      <c r="A10" s="2">
         <v>43573.8125</v>
       </c>
       <c r="B10" t="b">
@@ -1884,7 +1788,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="18">
+      <c r="A11" s="2">
         <v>43574.3125</v>
       </c>
       <c r="B11" t="b">
@@ -1901,7 +1805,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18">
+      <c r="A12" s="2">
         <v>43574.8125</v>
       </c>
       <c r="B12" t="b">
@@ -1918,7 +1822,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18">
+      <c r="A13" s="2">
         <v>43585.8125</v>
       </c>
       <c r="B13" t="b">
@@ -1935,7 +1839,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18">
+      <c r="A14" s="2">
         <v>43586.3125</v>
       </c>
       <c r="B14" t="b">
@@ -1952,7 +1856,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18">
+      <c r="A15" s="2">
         <v>43586.8125</v>
       </c>
       <c r="B15" t="b">
@@ -1969,7 +1873,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18">
+      <c r="A16" s="2">
         <v>43627.8125</v>
       </c>
       <c r="B16" t="b">
@@ -1986,7 +1890,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18">
+      <c r="A17" s="2">
         <v>43628.3125</v>
       </c>
       <c r="B17" t="b">
@@ -2003,7 +1907,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18">
+      <c r="A18" s="2">
         <v>43628.8125</v>
       </c>
       <c r="B18" t="b">
@@ -2020,7 +1924,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18">
+      <c r="A19" s="2">
         <v>43702.8125</v>
       </c>
       <c r="B19" t="b">
@@ -2037,7 +1941,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18">
+      <c r="A20" s="2">
         <v>43703.3125</v>
       </c>
       <c r="B20" t="b">
@@ -2054,7 +1958,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18">
+      <c r="A21" s="2">
         <v>43703.8125</v>
       </c>
       <c r="B21" t="b">
@@ -2071,7 +1975,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18">
+      <c r="A22" s="2">
         <v>43798.8125</v>
       </c>
       <c r="B22" t="b">
@@ -2088,7 +1992,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="18">
+      <c r="A23" s="2">
         <v>43799.3125</v>
       </c>
       <c r="B23" t="b">
@@ -2105,7 +2009,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18">
+      <c r="A24" s="2">
         <v>43799.8125</v>
       </c>
       <c r="B24" t="b">
@@ -2122,7 +2026,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18">
+      <c r="A25" s="2">
         <v>43823.8125</v>
       </c>
       <c r="B25" t="b">
@@ -2139,7 +2043,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18">
+      <c r="A26" s="2">
         <v>43824.3125</v>
       </c>
       <c r="B26" t="b">
@@ -2156,7 +2060,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18">
+      <c r="A27" s="2">
         <v>43824.8125</v>
       </c>
       <c r="B27" t="b">
@@ -2173,7 +2077,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18">
+      <c r="A28" s="2">
         <v>43828.8125</v>
       </c>
       <c r="B28" t="b">
@@ -2190,7 +2094,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18">
+      <c r="A29" s="2">
         <v>43829.3125</v>
       </c>
       <c r="B29" t="b">
@@ -2207,7 +2111,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18">
+      <c r="A30" s="2">
         <v>43829.8125</v>
       </c>
       <c r="B30" t="b">
@@ -2241,24 +2145,24 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18">
+      <c r="A2" s="2">
         <v>43221.3125</v>
       </c>
       <c r="B2" t="b">
@@ -2275,7 +2179,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18">
+      <c r="A3" s="2">
         <v>43221.8125</v>
       </c>
       <c r="B3" t="b">
@@ -2292,7 +2196,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18">
+      <c r="A4" s="2">
         <v>43262.8125</v>
       </c>
       <c r="B4" t="b">
@@ -2309,7 +2213,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18">
+      <c r="A5" s="2">
         <v>43263.3125</v>
       </c>
       <c r="B5" t="b">
@@ -2326,7 +2230,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="18">
+      <c r="A6" s="2">
         <v>43263.8125</v>
       </c>
       <c r="B6" t="b">
@@ -2343,7 +2247,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="18">
+      <c r="A7" s="2">
         <v>43330.8125</v>
       </c>
       <c r="B7" t="b">
@@ -2360,7 +2264,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="18">
+      <c r="A8" s="2">
         <v>43331.3125</v>
       </c>
       <c r="B8" t="b">
@@ -2377,7 +2281,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="18">
+      <c r="A9" s="2">
         <v>43331.8125</v>
       </c>
       <c r="B9" t="b">
@@ -2394,7 +2298,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="18">
+      <c r="A10" s="2">
         <v>43332.8125</v>
       </c>
       <c r="B10" t="b">
@@ -2411,7 +2315,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="18">
+      <c r="A11" s="2">
         <v>43333.3125</v>
       </c>
       <c r="B11" t="b">
@@ -2428,7 +2332,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="18">
+      <c r="A12" s="2">
         <v>43333.8125</v>
       </c>
       <c r="B12" t="b">
@@ -2445,7 +2349,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="18">
+      <c r="A13" s="2">
         <v>43338.8125</v>
       </c>
       <c r="B13" t="b">
@@ -2462,7 +2366,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="18">
+      <c r="A14" s="2">
         <v>43339.3125</v>
       </c>
       <c r="B14" t="b">
@@ -2479,7 +2383,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="18">
+      <c r="A15" s="2">
         <v>43339.8125</v>
       </c>
       <c r="B15" t="b">
@@ -2496,7 +2400,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="18">
+      <c r="A16" s="2">
         <v>43404.8125</v>
       </c>
       <c r="B16" t="b">
@@ -2513,7 +2417,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="18">
+      <c r="A17" s="2">
         <v>43405.3125</v>
       </c>
       <c r="B17" t="b">
@@ -2530,7 +2434,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="18">
+      <c r="A18" s="2">
         <v>43405.8125</v>
       </c>
       <c r="B18" t="b">
@@ -2547,7 +2451,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="18">
+      <c r="A19" s="2">
         <v>43406.3125</v>
       </c>
       <c r="B19" t="b">
@@ -2564,7 +2468,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="18">
+      <c r="A20" s="2">
         <v>43406.8125</v>
       </c>
       <c r="B20" t="b">
@@ -2581,7 +2485,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="18">
+      <c r="A21" s="2">
         <v>43433.8125</v>
       </c>
       <c r="B21" t="b">
@@ -2598,7 +2502,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="18">
+      <c r="A22" s="2">
         <v>43434.3125</v>
       </c>
       <c r="B22" t="b">
@@ -2615,7 +2519,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="18">
+      <c r="A23" s="2">
         <v>43434.8125</v>
       </c>
       <c r="B23" t="b">
@@ -2632,7 +2536,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="18">
+      <c r="A24" s="2">
         <v>43457.8125</v>
       </c>
       <c r="B24" t="b">
@@ -2649,7 +2553,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18">
+      <c r="A25" s="2">
         <v>43458.3125</v>
       </c>
       <c r="B25" t="b">
@@ -2666,7 +2570,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="18">
+      <c r="A26" s="2">
         <v>43458.8125</v>
       </c>
       <c r="B26" t="b">
@@ -2683,7 +2587,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="18">
+      <c r="A27" s="2">
         <v>43459.3125</v>
       </c>
       <c r="B27" t="b">
@@ -2700,7 +2604,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="18">
+      <c r="A28" s="2">
         <v>43459.8125</v>
       </c>
       <c r="B28" t="b">
@@ -2717,7 +2621,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="18">
+      <c r="A29" s="2">
         <v>43463.8125</v>
       </c>
       <c r="B29" t="b">
@@ -2734,7 +2638,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="18">
+      <c r="A30" s="2">
         <v>43464.3125</v>
       </c>
       <c r="B30" t="b">
@@ -2751,7 +2655,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="18">
+      <c r="A31" s="2">
         <v>43464.8125</v>
       </c>
       <c r="B31" t="b">
@@ -2768,7 +2672,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="18">
+      <c r="A32" s="2">
         <v>43465.3125</v>
       </c>
       <c r="B32" t="b">
@@ -2785,7 +2689,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18">
+      <c r="A33" s="2">
         <v>43465.8125</v>
       </c>
       <c r="B33" t="b">
@@ -2812,28 +2716,25 @@
   <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="18.2857142857143" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
+      <c r="A2" s="2">
         <v>43831.3125</v>
       </c>
       <c r="B2" t="s">
@@ -2844,7 +2745,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="2">
         <v>43831.8125</v>
       </c>
       <c r="B3" t="s">
@@ -2855,7 +2756,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="2">
         <v>43854.8125</v>
       </c>
       <c r="B4" t="s">
@@ -2866,7 +2767,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="2">
         <v>43855.3125</v>
       </c>
       <c r="B5" t="s">
@@ -2877,7 +2778,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="2">
         <v>43855.8125</v>
       </c>
       <c r="B6" t="s">
@@ -2888,7 +2789,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="2">
         <v>43885.8125</v>
       </c>
       <c r="B7" t="s">
@@ -2899,7 +2800,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="2">
         <v>43886.3125</v>
       </c>
       <c r="B8" t="s">
@@ -2910,7 +2811,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18">
+      <c r="A9" s="2">
         <v>43886.8125</v>
       </c>
       <c r="B9" t="s">
@@ -2921,7 +2822,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18">
+      <c r="A10" s="2">
         <v>43929.8125</v>
       </c>
       <c r="B10" t="s">
@@ -2932,7 +2833,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="18">
+      <c r="A11" s="2">
         <v>43930.3125</v>
       </c>
       <c r="B11" t="s">
@@ -2943,7 +2844,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="18">
+      <c r="A12" s="2">
         <v>43930.8125</v>
       </c>
       <c r="B12" t="s">
@@ -2954,7 +2855,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18">
+      <c r="A13" s="2">
         <v>43931.3125</v>
       </c>
       <c r="B13" t="s">
@@ -2965,7 +2866,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18">
+      <c r="A14" s="2">
         <v>43931.8125</v>
       </c>
       <c r="B14" t="s">
@@ -2976,7 +2877,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18">
+      <c r="A15" s="2">
         <v>43932.3125</v>
       </c>
       <c r="B15" t="s">
@@ -2987,7 +2888,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="18">
+      <c r="A16" s="2">
         <v>43932.8125</v>
       </c>
       <c r="B16" t="s">
@@ -2998,7 +2899,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18">
+      <c r="A17" s="2">
         <v>43951.8125</v>
       </c>
       <c r="B17" t="s">
@@ -3009,7 +2910,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18">
+      <c r="A18" s="2">
         <v>43952.3125</v>
       </c>
       <c r="B18" t="s">
@@ -3020,7 +2921,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="18">
+      <c r="A19" s="2">
         <v>43952.8125</v>
       </c>
       <c r="B19" t="s">
@@ -3031,7 +2932,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18">
+      <c r="A20" s="2">
         <v>43983.3125</v>
       </c>
       <c r="B20" t="s">
@@ -3042,7 +2943,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18">
+      <c r="A21" s="2">
         <v>43983.8125</v>
       </c>
       <c r="B21" t="s">
@@ -3053,7 +2954,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="18">
+      <c r="A22" s="2">
         <v>43984.3125</v>
       </c>
       <c r="B22" t="s">
@@ -3064,7 +2965,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18">
+      <c r="A23" s="2">
         <v>43984.8125</v>
       </c>
       <c r="B23" t="s">
@@ -3075,7 +2976,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18">
+      <c r="A24" s="2">
         <v>43985.3125</v>
       </c>
       <c r="B24" t="s">
@@ -3086,7 +2987,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18">
+      <c r="A25" s="2">
         <v>43985.8125</v>
       </c>
       <c r="B25" t="s">
@@ -3097,7 +2998,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18">
+      <c r="A26" s="2">
         <v>43986.3125</v>
       </c>
       <c r="B26" t="s">
@@ -3108,7 +3009,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18">
+      <c r="A27" s="2">
         <v>43986.8125</v>
       </c>
       <c r="B27" t="s">
@@ -3119,7 +3020,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18">
+      <c r="A28" s="2">
         <v>43987.3125</v>
       </c>
       <c r="B28" t="s">
@@ -3130,7 +3031,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18">
+      <c r="A29" s="2">
         <v>43987.8125</v>
       </c>
       <c r="B29" t="s">
@@ -3141,7 +3042,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18">
+      <c r="A30" s="2">
         <v>43988.3125</v>
       </c>
       <c r="B30" t="s">
@@ -3152,7 +3053,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18">
+      <c r="A31" s="2">
         <v>43988.8125</v>
       </c>
       <c r="B31" t="s">
@@ -3163,7 +3064,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18">
+      <c r="A32" s="2">
         <v>43989.3125</v>
       </c>
       <c r="B32" t="s">
@@ -3174,7 +3075,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18">
+      <c r="A33" s="2">
         <v>43989.8125</v>
       </c>
       <c r="B33" t="s">
@@ -3185,7 +3086,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18">
+      <c r="A34" s="2">
         <v>43990.3125</v>
       </c>
       <c r="B34" t="s">
@@ -3196,7 +3097,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18">
+      <c r="A35" s="2">
         <v>43990.8125</v>
       </c>
       <c r="B35" t="s">
@@ -3207,7 +3108,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="18">
+      <c r="A36" s="2">
         <v>43991.3125</v>
       </c>
       <c r="B36" t="s">
@@ -3218,7 +3119,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="18">
+      <c r="A37" s="2">
         <v>43991.8125</v>
       </c>
       <c r="B37" t="s">
@@ -3229,7 +3130,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="18">
+      <c r="A38" s="2">
         <v>43992.3125</v>
       </c>
       <c r="B38" t="s">
@@ -3240,7 +3141,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="18">
+      <c r="A39" s="2">
         <v>43992.8125</v>
       </c>
       <c r="B39" t="s">
@@ -3251,7 +3152,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="18">
+      <c r="A40" s="2">
         <v>43993.3125</v>
       </c>
       <c r="B40" t="s">
@@ -3262,7 +3163,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="18">
+      <c r="A41" s="2">
         <v>43993.8125</v>
       </c>
       <c r="B41" t="s">
@@ -3273,7 +3174,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="18">
+      <c r="A42" s="2">
         <v>43994.3125</v>
       </c>
       <c r="B42" t="s">
@@ -3284,7 +3185,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="18">
+      <c r="A43" s="2">
         <v>43994.8125</v>
       </c>
       <c r="B43" t="s">
@@ -3295,7 +3196,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="18">
+      <c r="A44" s="2">
         <v>44061.8125</v>
       </c>
       <c r="B44" t="s">
@@ -3306,7 +3207,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="18">
+      <c r="A45" s="2">
         <v>44062.3125</v>
       </c>
       <c r="B45" t="s">
@@ -3317,7 +3218,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="18">
+      <c r="A46" s="2">
         <v>44062.8125</v>
       </c>
       <c r="B46" t="s">
@@ -3328,7 +3229,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18">
+      <c r="A47" s="2">
         <v>44063.8125</v>
       </c>
       <c r="B47" t="s">
@@ -3339,7 +3240,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="18">
+      <c r="A48" s="2">
         <v>44064.3125</v>
       </c>
       <c r="B48" t="s">
@@ -3350,7 +3251,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18">
+      <c r="A49" s="2">
         <v>44064.8125</v>
       </c>
       <c r="B49" t="s">
@@ -3361,7 +3262,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18">
+      <c r="A50" s="2">
         <v>44073.8125</v>
       </c>
       <c r="B50" t="s">
@@ -3372,7 +3273,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="18">
+      <c r="A51" s="2">
         <v>44074.3125</v>
       </c>
       <c r="B51" t="s">
@@ -3383,7 +3284,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18">
+      <c r="A52" s="2">
         <v>44074.8125</v>
       </c>
       <c r="B52" t="s">
@@ -3394,7 +3295,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18">
+      <c r="A53" s="2">
         <v>44135.8125</v>
       </c>
       <c r="B53" t="s">
@@ -3405,7 +3306,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="18">
+      <c r="A54" s="2">
         <v>44136.3125</v>
       </c>
       <c r="B54" t="s">
@@ -3416,7 +3317,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="18">
+      <c r="A55" s="2">
         <v>44136.8125</v>
       </c>
       <c r="B55" t="s">
@@ -3427,7 +3328,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="18">
+      <c r="A56" s="2">
         <v>44137.3125</v>
       </c>
       <c r="B56" t="s">
@@ -3438,7 +3339,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="18">
+      <c r="A57" s="2">
         <v>44137.8125</v>
       </c>
       <c r="B57" t="s">
@@ -3449,7 +3350,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="18">
+      <c r="A58" s="2">
         <v>44164.8125</v>
       </c>
       <c r="B58" t="s">
@@ -3460,7 +3361,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="18">
+      <c r="A59" s="2">
         <v>44165.3125</v>
       </c>
       <c r="B59" t="s">
@@ -3471,7 +3372,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="18">
+      <c r="A60" s="2">
         <v>44165.8125</v>
       </c>
       <c r="B60" t="s">
@@ -3482,7 +3383,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="18">
+      <c r="A61" s="2">
         <v>44172.8125</v>
       </c>
       <c r="B61" t="s">
@@ -3493,7 +3394,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="18">
+      <c r="A62" s="2">
         <v>44173.3125</v>
       </c>
       <c r="B62" t="s">
@@ -3504,7 +3405,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="18">
+      <c r="A63" s="2">
         <v>44173.8125</v>
       </c>
       <c r="B63" t="s">
@@ -3515,7 +3416,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="18">
+      <c r="A64" s="2">
         <v>44188.8125</v>
       </c>
       <c r="B64" t="s">
@@ -3526,7 +3427,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="18">
+      <c r="A65" s="2">
         <v>44189.3125</v>
       </c>
       <c r="B65" t="s">
@@ -3537,7 +3438,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="18">
+      <c r="A66" s="2">
         <v>44189.8125</v>
       </c>
       <c r="B66" t="s">
@@ -3548,7 +3449,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="18">
+      <c r="A67" s="2">
         <v>44190.3125</v>
       </c>
       <c r="B67" t="s">
@@ -3559,7 +3460,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="18">
+      <c r="A68" s="2">
         <v>44190.8125</v>
       </c>
       <c r="B68" t="s">
@@ -3570,7 +3471,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="18">
+      <c r="A69" s="2">
         <v>44194.8125</v>
       </c>
       <c r="B69" t="s">
@@ -3581,7 +3482,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="18">
+      <c r="A70" s="2">
         <v>44195.3125</v>
       </c>
       <c r="B70" t="s">
@@ -3592,7 +3493,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="18">
+      <c r="A71" s="2">
         <v>44195.8125</v>
       </c>
       <c r="B71" t="s">
@@ -3603,7 +3504,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="18">
+      <c r="A72" s="2">
         <v>44196.3125</v>
       </c>
       <c r="B72" t="s">
@@ -3614,7 +3515,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="18">
+      <c r="A73" s="2">
         <v>44196.8125</v>
       </c>
       <c r="B73" t="s">
@@ -3635,28 +3536,25 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="18.1428571428571" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
+      <c r="A2" s="2">
         <v>44197.3125</v>
       </c>
       <c r="B2" t="s">
@@ -3667,7 +3565,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18">
+      <c r="A3" s="2">
         <v>44197.8125</v>
       </c>
       <c r="B3" t="s">
@@ -3678,7 +3576,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18">
+      <c r="A4" s="2">
         <v>44238.8125</v>
       </c>
       <c r="B4" t="s">
@@ -3689,7 +3587,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18">
+      <c r="A5" s="2">
         <v>44239.3125</v>
       </c>
       <c r="B5" t="s">
@@ -3700,7 +3598,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18">
+      <c r="A6" s="2">
         <v>44239.8125</v>
       </c>
       <c r="B6" t="s">
@@ -3711,7 +3609,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18">
+      <c r="A7" s="2">
         <v>44251.8125</v>
       </c>
       <c r="B7" t="s">
@@ -3722,7 +3620,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18">
+      <c r="A8" s="2">
         <v>44252.3125</v>
       </c>
       <c r="B8" t="s">
@@ -3733,7 +3631,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18">
+      <c r="A9" s="2">
         <v>44252.8125</v>
       </c>
       <c r="B9" t="s">
@@ -3744,7 +3642,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18">
+      <c r="A10" s="2">
         <v>44286.8125</v>
       </c>
       <c r="B10" t="s">
@@ -3755,7 +3653,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="18">
+      <c r="A11" s="2">
         <v>44287.3125</v>
       </c>
       <c r="B11" t="s">
@@ -3766,7 +3664,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="18">
+      <c r="A12" s="2">
         <v>44287.8125</v>
       </c>
       <c r="B12" t="s">
@@ -3777,7 +3675,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="18">
+      <c r="A13" s="2">
         <v>44288.3125</v>
       </c>
       <c r="B13" t="s">
@@ -3788,7 +3686,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18">
+      <c r="A14" s="2">
         <v>44288.8125</v>
       </c>
       <c r="B14" t="s">
@@ -3799,7 +3697,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18">
+      <c r="A15" s="2">
         <v>44289.3125</v>
       </c>
       <c r="B15" t="s">
@@ -3810,7 +3708,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="18">
+      <c r="A16" s="2">
         <v>44289.8125</v>
       </c>
       <c r="B16" t="s">
@@ -3821,7 +3719,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18">
+      <c r="A17" s="2">
         <v>44294.8125</v>
       </c>
       <c r="B17" t="s">
@@ -3832,7 +3730,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="18">
+      <c r="A18" s="2">
         <v>44295.3125</v>
       </c>
       <c r="B18" t="s">
@@ -3843,7 +3741,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="18">
+      <c r="A19" s="2">
         <v>44295.8125</v>
       </c>
       <c r="B19" t="s">
@@ -3854,7 +3752,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="18">
+      <c r="A20" s="2">
         <v>44316.8125</v>
       </c>
       <c r="B20" t="s">
@@ -3865,7 +3763,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="18">
+      <c r="A21" s="2">
         <v>44317.3125</v>
       </c>
       <c r="B21" t="s">
@@ -3876,7 +3774,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="18">
+      <c r="A22" s="2">
         <v>44317.8125</v>
       </c>
       <c r="B22" t="s">
@@ -3887,7 +3785,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="18">
+      <c r="A23" s="2">
         <v>44358.8125</v>
       </c>
       <c r="B23" t="s">
@@ -3898,7 +3796,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="18">
+      <c r="A24" s="2">
         <v>44359.3125</v>
       </c>
       <c r="B24" t="s">
@@ -3909,7 +3807,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="18">
+      <c r="A25" s="2">
         <v>44359.8125</v>
       </c>
       <c r="B25" t="s">
@@ -3920,21 +3818,21 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18">
+      <c r="A26" s="2">
         <v>44426.8125</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18">
+      <c r="A27" s="2">
         <v>44427.3125</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" t="s">
         <v>70</v>
       </c>
       <c r="C27" t="s">
@@ -3942,7 +3840,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18">
+      <c r="A28" s="2">
         <v>44427.8125</v>
       </c>
       <c r="B28" t="s">
@@ -3953,7 +3851,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18">
+      <c r="A29" s="2">
         <v>44428.8125</v>
       </c>
       <c r="B29" t="s">
@@ -3964,7 +3862,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="18">
+      <c r="A30" s="2">
         <v>44429.3125</v>
       </c>
       <c r="B30" t="s">
@@ -3975,18 +3873,18 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18">
+      <c r="A31" s="2">
         <v>44429.8125</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="18">
+      <c r="A32" s="2">
         <v>44437.8125</v>
       </c>
       <c r="B32" t="s">
@@ -3997,10 +3895,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="18">
+      <c r="A33" s="2">
         <v>44438.3125</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" t="s">
@@ -4008,7 +3906,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="18">
+      <c r="A34" s="2">
         <v>44438.8125</v>
       </c>
       <c r="B34" t="s">
@@ -4019,95 +3917,95 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="18">
+      <c r="A35" s="2">
         <v>44500.8125</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:3">
-      <c r="A36" s="20">
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>44501.3125</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="20">
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>44501.8125</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="20">
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>44502.3125</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:3">
-      <c r="A39" s="20">
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>44502.8125</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:3">
-      <c r="A40" s="20">
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>44529.8125</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:3">
-      <c r="A41" s="20">
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>44530.3125</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" spans="1:3">
-      <c r="A42" s="20">
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>44530.8125</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="18">
+      <c r="A43" s="2">
         <v>44537.8125</v>
       </c>
       <c r="B43" t="s">
@@ -4118,29 +4016,29 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="18">
+      <c r="A44" s="2">
         <v>44538.3125</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="18">
+      <c r="A45" s="2">
         <v>44538.8125</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="18">
+      <c r="A46" s="2">
         <v>44553.8125</v>
       </c>
       <c r="B46" t="s">
@@ -4151,29 +4049,29 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18">
+      <c r="A47" s="2">
         <v>44554.3125</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="18">
+      <c r="A48" s="2">
         <v>44554.8125</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18">
+      <c r="A49" s="2">
         <v>44555.3125</v>
       </c>
       <c r="B49" t="s">
@@ -4184,7 +4082,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="18">
+      <c r="A50" s="2">
         <v>44555.8125</v>
       </c>
       <c r="B50" t="s">
@@ -4195,7 +4093,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="18">
+      <c r="A51" s="2">
         <v>44559.8125</v>
       </c>
       <c r="B51" t="s">
@@ -4206,7 +4104,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="18">
+      <c r="A52" s="2">
         <v>44560.3125</v>
       </c>
       <c r="B52" t="s">
@@ -4217,7 +4115,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="18">
+      <c r="A53" s="2">
         <v>44560.8125</v>
       </c>
       <c r="B53" t="s">
@@ -4228,18 +4126,18 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="18">
+      <c r="A54" s="2">
         <v>44561.3125</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="18">
+      <c r="A55" s="2">
         <v>44561.8125</v>
       </c>
       <c r="B55" t="s">
@@ -4251,7 +4149,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4259,1187 +4156,1829 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.1428571428571" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.42857142857143" customWidth="1"/>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44927.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44927.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44928.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44928.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44981.8125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44982.3125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44982.8125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>45021.8125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45022.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>45022.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45023.3125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45023.8125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45024.3125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45024.8125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45025.3125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45025.8125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45026.3125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45026.8125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45046.8125</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45047.3125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45047.8125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45088.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45089.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45089.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45156.8125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45157.3125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45157.8125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45158.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45159.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45159.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45165.8125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45166.3125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45166.8125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45230.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45231.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45231.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45232.3125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45232.8125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45256.8125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45257.3125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45257.8125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45259.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45260.3125</v>
+      </c>
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45260.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45267.8125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45268.3125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45268.8125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45283.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45284.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45284.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45285.3125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45285.8125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45286.3125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45286.8125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45289.8125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45290.3125</v>
+      </c>
+      <c r="B57" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="C57" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45290.8125</v>
+      </c>
+      <c r="B58" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45291.3125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:4">
-      <c r="A12" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45291.8125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
         <v>94</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:4">
-      <c r="A17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" ht="15.75" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" ht="15.75" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" ht="15.75" spans="1:4">
-      <c r="A23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" ht="15.75" spans="1:4">
-      <c r="A26" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" ht="15.75" spans="1:4">
-      <c r="A27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:4">
-      <c r="A28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
-      <c r="A29" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A30" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A31" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A32" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A34" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="15"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="15.75" spans="1:4">
-      <c r="A36" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A40" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A41" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A42" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A43" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A44" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A45" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A46" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A47" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A48" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A49" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A50" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A51" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" spans="1:3">
-      <c r="A53" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" spans="1:3">
-      <c r="A54" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" spans="1:3">
-      <c r="A55" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" spans="1:3">
-      <c r="A56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" spans="1:3">
-      <c r="A57" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" spans="1:3">
-      <c r="A58" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" spans="1:3">
-      <c r="A59" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="1:3">
-      <c r="A60" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A61" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A62" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A63" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A64" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A65" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A66" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A67" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A68" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A69" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A70" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A71" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" s="2" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A72" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" spans="1:3">
-      <c r="A73" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A74" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A75" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A76" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A77" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A78" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A79" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A80" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A81" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A82" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A83" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" s="3" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A84" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:3">
-      <c r="A86" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" spans="1:3">
-      <c r="A87" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" spans="1:3">
-      <c r="A88" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" spans="1:3">
-      <c r="A89" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" spans="1:3">
-      <c r="A90" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" spans="1:3">
-      <c r="A91" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:3">
-      <c r="A92" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" spans="1:3">
-      <c r="A93" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" spans="1:3">
-      <c r="A94" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" spans="1:3">
-      <c r="A95" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" spans="1:3">
-      <c r="A96" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" spans="1:3">
-      <c r="A97" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B99" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B101" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B103" t="s">
-        <v>68</v>
-      </c>
-      <c r="C103" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="5"/>
+    <workbookView windowWidth="14400" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="200">
   <si>
     <t>ts</t>
   </si>
@@ -601,19 +601,25 @@
     <t>2022-12-15 7:30:00</t>
   </si>
   <si>
-    <t>newbie3</t>
-  </si>
-  <si>
-    <t>newbie4</t>
-  </si>
-  <si>
-    <t>newbie1</t>
-  </si>
-  <si>
-    <t>newbie5</t>
-  </si>
-  <si>
-    <t>newbie2</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Jianne</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Leb</t>
   </si>
 </sst>
 </file>
@@ -621,11 +627,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -643,18 +649,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,14 +688,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,6 +717,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -724,6 +744,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,37 +771,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,7 +787,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,7 +809,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,13 +887,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,43 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,109 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,17 +1014,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,6 +1057,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1073,24 +1077,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,160 +1095,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5306,10 +5314,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -5385,597 +5393,787 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44982.3125</v>
+        <v>44962.3125</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>44982.8125</v>
+        <v>44968.3125</v>
       </c>
       <c r="B8" t="s">
         <v>193</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45021.8125</v>
+        <v>44969.3125</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45022.3125</v>
+        <v>44982.3125</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45022.8125</v>
+        <v>44982.8125</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45023.3125</v>
+        <v>45021.8125</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45023.8125</v>
+        <v>45022.3125</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45024.3125</v>
+        <v>45022.8125</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45024.8125</v>
+        <v>45023.3125</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45025.3125</v>
+        <v>45023.8125</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45025.8125</v>
+        <v>45024.3125</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45026.3125</v>
+        <v>45024.8125</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45026.8125</v>
+        <v>45025.3125</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45046.8125</v>
+        <v>45025.8125</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45047.3125</v>
+        <v>45026.3125</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45047.8125</v>
+        <v>45026.8125</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45088.8125</v>
+        <v>45046.8125</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45089.3125</v>
+        <v>45047.3125</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45089.8125</v>
+        <v>45047.8125</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45156.8125</v>
+        <v>45088.8125</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45157.3125</v>
+        <v>45089.3125</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45157.8125</v>
+        <v>45089.8125</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45158.8125</v>
+        <v>45156.8125</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45159.3125</v>
+        <v>45157.3125</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45159.8125</v>
+        <v>45157.8125</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45165.8125</v>
+        <v>45158.8125</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45166.3125</v>
+        <v>45159.3125</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45166.8125</v>
+        <v>45159.8125</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45230.8125</v>
+        <v>45165.8125</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45231.3125</v>
+        <v>45166.3125</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45231.8125</v>
+        <v>45166.8125</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45232.3125</v>
+        <v>45230.8125</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45232.8125</v>
+        <v>45231.3125</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45256.8125</v>
+        <v>45231.8125</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45257.3125</v>
+        <v>45232.3125</v>
       </c>
       <c r="B41" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45257.8125</v>
+        <v>45232.8125</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45259.8125</v>
+        <v>45256.8125</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45260.3125</v>
+        <v>45257.3125</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45260.8125</v>
+        <v>45257.8125</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45267.8125</v>
+        <v>45259.8125</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45268.3125</v>
+        <v>45260.3125</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45268.8125</v>
+        <v>45260.8125</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45283.8125</v>
+        <v>45267.8125</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45284.3125</v>
+        <v>45268.3125</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45284.8125</v>
+        <v>45268.8125</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45285.3125</v>
+        <v>45283.8125</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45285.8125</v>
+        <v>45284.3125</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45286.3125</v>
+        <v>45284.8125</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45286.8125</v>
+        <v>45285.3125</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45289.8125</v>
+        <v>45285.8125</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45290.3125</v>
+        <v>45286.3125</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45290.8125</v>
+        <v>45286.8125</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45291.3125</v>
+        <v>45289.8125</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
+        <v>45290.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45290.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45291.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>45291.8125</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>55</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3">
+        <v>45019.3125</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3">
+        <v>45020.3125</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3">
+        <v>45021.3125</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3">
+        <v>45027.3125</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3">
+        <v>45028.3125</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3">
+        <v>45029.3125</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="3">
+        <v>45029.8125</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3">
+        <v>45030.3125</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3">
+        <v>45030.8125</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3">
+        <v>45033.3125</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="3">
+        <v>45035.3125</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3">
+        <v>45036.3125</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3">
+        <v>45036.8125</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3">
+        <v>45042.3125</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/HolidayShift.xlsx
+++ b/HolidayShift.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -14,13 +13,28 @@
     <sheet name="2021" sheetId="4" r:id="rId4"/>
     <sheet name="2022" sheetId="5" r:id="rId5"/>
     <sheet name="2023" sheetId="6" r:id="rId6"/>
+    <sheet name="2024" sheetId="7" r:id="rId7"/>
+    <sheet name="2025" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="217">
   <si>
     <t>ts</t>
   </si>
@@ -620,20 +634,71 @@
   </si>
   <si>
     <t>Leb</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Rog</t>
+  </si>
+  <si>
+    <t>Cesca</t>
+  </si>
+  <si>
+    <t>Les</t>
+  </si>
+  <si>
+    <t>Chlo</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Elyse</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Lei</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Bon</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Aime</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>ComRAR</t>
+  </si>
+  <si>
+    <t>CV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,38 +721,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="6"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3" tint="0.4"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="4"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,11 +764,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,18 +818,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,31 +834,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +858,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,7 +901,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +1009,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,103 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,25 +1051,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,6 +1111,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1051,54 +1191,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1118,10 +1210,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,140 +1225,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1271,55 +1363,63 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1330,6 +1430,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,10 +1727,13 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.14285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -5314,15 +5424,1055 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44927.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44927.8125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44928.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44928.8125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44981.8125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44962.3125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44968.3125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44969.3125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44982.3125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44982.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45021.8125</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45022.3125</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45022.8125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45023.3125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45023.8125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>45024.3125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45024.8125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45025.3125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>45025.8125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45026.3125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45026.8125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45046.8125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45047.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45047.8125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45088.8125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45089.3125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45089.8125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45156.8125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45157.3125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45157.8125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45158.8125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45159.3125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45159.8125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45165.8125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45166.3125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45166.8125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45230.8125</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45231.3125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45231.8125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45232.3125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45232.8125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45256.8125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45257.3125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45257.8125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45259.8125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45260.3125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45260.8125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45267.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45268.3125</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45268.8125</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45283.8125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45284.3125</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45284.8125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45285.3125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45285.8125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45286.3125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45286.8125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45289.8125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45290.3125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45290.8125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45291.3125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45291.8125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45019.3125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45020.3125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45021.3125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45027.3125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45028.3125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45029.3125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45029.8125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45030.3125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45030.8125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45033.3125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45035.3125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45036.3125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45036.8125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45042.3125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45050.3125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45053.8125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45055.3125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45060.8125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45064.3125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45071.8125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45124.3125</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45124.8125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45125.3125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45125.8125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>199</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45126.3125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45126.8125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45127.3125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45127.8125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45128.3125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45128.8125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C109"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -5338,842 +6488,1908 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44927.3125</v>
+        <v>45292.3125</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>44927.8125</v>
+        <v>45292.8125</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>44928.3125</v>
+        <v>45331.8125</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>44928.8125</v>
+        <v>45332.3125</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>44981.8125</v>
+        <v>45332.8125</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
+        <v>45378.8125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
+        <v>45379.3125</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>45379.8125</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
+        <v>45380.3125</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>45380.8125</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
+        <v>45381.3125</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>45381.8125</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11">
+        <v>45355.3125</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11">
+        <v>45357.3125</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11">
+        <v>45358.3125</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11">
+        <v>45362.3125</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11">
+        <v>45363.3125</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11">
+        <v>45364.3125</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11">
+        <v>45365.3125</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11">
+        <v>45370.3125</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11">
+        <v>45371.3125</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11">
+        <v>45377.3125</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11">
+        <v>45378.3125</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="8">
+        <v>45383.3125</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="8">
+        <v>45384.3125</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8">
+        <v>45385.3125</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="8">
+        <v>45386.3125</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="8">
+        <v>45390.3125</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="8">
+        <v>45393.3125</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="8">
+        <v>45394.3125</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="8">
+        <v>45395.3125</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="8">
+        <v>45397.3125</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="8">
+        <v>45398.3125</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="8">
+        <v>45399.3125</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="8">
+        <v>45400.3125</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="8">
+        <v>45402.3125</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8">
+        <v>45403.8125</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8">
+        <v>45404.3125</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="8">
+        <v>45405.3125</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8">
+        <v>45406.3125</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8">
+        <v>45407.3125</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8">
+        <v>45408.3125</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45390.8125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45391.3125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45391.8125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45412.8125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45413.3125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45413.8125</v>
+      </c>
+      <c r="B49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="9">
+        <v>45418.3125</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="9">
+        <v>45419.3125</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="9">
+        <v>45420.3125</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="9">
+        <v>45421.3125</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="9">
+        <v>45423.8125</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="9">
+        <v>45426.3125</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="9">
+        <v>45427.3125</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9">
+        <v>45428.3125</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9">
+        <v>45431.8125</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9">
+        <v>45433.3125</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9">
+        <v>45434.3125</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9">
+        <v>45435.3125</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="9">
+        <v>45438.8125</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9">
+        <v>45439.3125</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9">
+        <v>45440.3125</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9">
+        <v>45449.3125</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="11">
+        <v>45454.3125</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45454.8125</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45455.3125</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45455.8125</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45522.8125</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45523.3125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45523.8125</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45524.8125</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45525.3125</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45525.8125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45529.8125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45530.3125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45530.8125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45542.3125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45596.8125</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45597.3125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45597.8125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45598.3125</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45598.8125</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45605.3125</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45625.8125</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45626.3125</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45626.8125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45633.3125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45633.8125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45634.3125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45634.8125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45649.8125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45650.3125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45650.8125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45651.3125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45651.8125</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45652.3125</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45652.8125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45653.3125</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45653.8125</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45654.3125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45654.8125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45655.3125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45655.8125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45656.3125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>22</v>
+      </c>
+      <c r="C106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45656.8125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45657.3125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45657.8125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="21.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45668.3125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>45719.3125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45933.3125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45738.3125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45727.3125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>44962.3125</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="3">
+        <v>45728.3125</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>45729.3125</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
+        <v>45735.3125</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>45736.3125</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>45742.3125</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>45756.3125</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>45764.3125</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>45765.3125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>44968.3125</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>45749.3125</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>45750.3125</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>45751.3125</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>45753.3125</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>45755.3125</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>45757.3125</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>45763.3125</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
+        <v>45771.3125</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>45777.3125</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5">
+        <v>45748.3125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
         <v>193</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>44969.3125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>44982.3125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>44982.8125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>45021.8125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>45022.3125</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>45022.8125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>45023.3125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>45023.8125</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>45024.3125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>45024.8125</v>
-      </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>45025.3125</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>45025.8125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>45026.3125</v>
-      </c>
-      <c r="B21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>45026.8125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>45046.8125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>45047.3125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>45047.8125</v>
+      <c r="A25" s="5">
+        <v>45784.3125</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>45088.8125</v>
+      <c r="A26" s="5">
+        <v>45792.3125</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>45089.3125</v>
-      </c>
-      <c r="B27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>45089.8125</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>45156.8125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>45157.3125</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
-        <v>45157.8125</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s">
-        <v>196</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>45798.3125</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>45804.3125</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>45800.3125</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>45825.3125</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
+        <v>45832.3125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>45158.8125</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
+      <c r="A32" s="5">
+        <v>45810.3125</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>45159.3125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
+      <c r="A33" s="5">
+        <v>45854.3125</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>45159.8125</v>
-      </c>
-      <c r="B34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
+      <c r="A34" s="5">
+        <v>45860.3125</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>45165.8125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>87</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>45166.3125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>45166.8125</v>
-      </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>45230.8125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
-        <v>45231.3125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2">
-        <v>45231.8125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
-        <v>45232.3125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2">
-        <v>45232.8125</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
-        <v>45256.8125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>75</v>
-      </c>
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
-        <v>45257.3125</v>
-      </c>
-      <c r="B44" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
-        <v>45257.8125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
-        <v>45259.8125</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
-        <v>194</v>
-      </c>
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
-        <v>45260.3125</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>123</v>
-      </c>
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
-        <v>45260.8125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2">
-        <v>45267.8125</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2">
-        <v>45268.3125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2">
-        <v>45268.8125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2">
-        <v>45283.8125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2">
-        <v>45284.3125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2">
-        <v>45284.8125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2">
-        <v>45285.3125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>199</v>
-      </c>
+      <c r="A49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2">
-        <v>45285.8125</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2">
-        <v>45286.3125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>199</v>
-      </c>
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2">
-        <v>45286.8125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" t="s">
-        <v>91</v>
-      </c>
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2">
-        <v>45289.8125</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="s">
-        <v>106</v>
-      </c>
+      <c r="A59" s="9"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2">
-        <v>45290.3125</v>
-      </c>
-      <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
-      </c>
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2">
-        <v>45290.8125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" t="s">
-        <v>155</v>
-      </c>
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2">
-        <v>45291.3125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" t="s">
-        <v>74</v>
-      </c>
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2">
-        <v>45291.8125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C63" t="s">
-        <v>94</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3">
-        <v>45019.3125</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3">
-        <v>45020.3125</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>196</v>
-      </c>
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3">
-        <v>45021.3125</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3">
-        <v>45027.3125</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3">
-        <v>45028.3125</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3">
-        <v>45029.3125</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="3">
-        <v>45029.8125</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="3">
-        <v>45030.3125</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="3">
-        <v>45030.8125</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="3">
-        <v>45033.3125</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="3">
-        <v>45035.3125</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="3">
-        <v>45036.3125</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3">
-        <v>45036.8125</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3">
-        <v>45042.3125</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
